--- a/static/Models/Classification/Equation/Multi Nationals.xlsx
+++ b/static/Models/Classification/Equation/Multi Nationals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-23</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-2.833794593811035</v>
+        <v>-3.012264251708984</v>
       </c>
       <c r="C2">
-        <v>3.091947793960571</v>
+        <v>3.065895318984985</v>
       </c>
       <c r="D2">
-        <v>-9.366856575012207</v>
+        <v>-9.126424789428711</v>
       </c>
       <c r="E2">
-        <v>15.29879283905029</v>
+        <v>14.88801383972168</v>
       </c>
       <c r="F2">
-        <v>-1.024554133415222</v>
+        <v>-1.27103054523468</v>
       </c>
       <c r="G2">
-        <v>2.504412174224854</v>
+        <v>2.44749903678894</v>
       </c>
       <c r="H2">
-        <v>-0.2870205938816071</v>
+        <v>-0.4732262194156647</v>
       </c>
       <c r="I2">
-        <v>3.269111156463623</v>
+        <v>2.943925857543945</v>
       </c>
       <c r="J2">
-        <v>3.789810419082642</v>
+        <v>3.478859424591064</v>
       </c>
       <c r="K2">
-        <v>1.574983596801758</v>
+        <v>1.441834688186646</v>
       </c>
       <c r="L2">
-        <v>-0.5093247890472412</v>
+        <v>-0.6430962681770325</v>
       </c>
       <c r="M2">
-        <v>-1.170889139175415</v>
+        <v>-0.8877533674240112</v>
       </c>
       <c r="N2">
-        <v>-0.9478834271430969</v>
+        <v>-1.003731250762939</v>
       </c>
       <c r="O2">
-        <v>5.001136302947998</v>
+        <v>4.92530345916748</v>
       </c>
       <c r="P2">
-        <v>6.383015155792236</v>
+        <v>6.536264419555664</v>
       </c>
       <c r="Q2">
-        <v>-4.293782234191895</v>
+        <v>-4.326470851898193</v>
       </c>
       <c r="R2">
-        <v>0.240090548992157</v>
+        <v>-0.1840904355049133</v>
       </c>
       <c r="S2">
-        <v>-16.3360710144043</v>
+        <v>-16.53437042236328</v>
       </c>
       <c r="T2">
-        <v>0.1800574958324432</v>
+        <v>0.02475104108452797</v>
       </c>
       <c r="U2">
-        <v>-6.179933547973633</v>
+        <v>-6.770524501800537</v>
       </c>
       <c r="V2">
-        <v>0.5212702751159668</v>
+        <v>0.9846449494361877</v>
       </c>
       <c r="W2">
-        <v>-3.608834028244019</v>
+        <v>-3.851970911026001</v>
       </c>
       <c r="X2">
-        <v>-1.456495642662048</v>
+        <v>-0.9372811913490295</v>
       </c>
       <c r="Y2">
-        <v>0.4359665811061859</v>
+        <v>0.6441301107406616</v>
       </c>
       <c r="Z2">
-        <v>0.8126370310783386</v>
+        <v>0.6202028393745422</v>
       </c>
       <c r="AA2">
-        <v>0.9074603915214539</v>
+        <v>0.8248758316040039</v>
       </c>
       <c r="AB2">
-        <v>4.661519050598145</v>
+        <v>4.718175888061523</v>
       </c>
       <c r="AC2">
-        <v>-9.147393226623535</v>
+        <v>-9.459526062011719</v>
       </c>
       <c r="AD2">
-        <v>-0.2326474487781525</v>
+        <v>-0.2370166331529617</v>
       </c>
       <c r="AE2">
-        <v>-6.278778553009033</v>
+        <v>-6.222480773925781</v>
       </c>
       <c r="AF2">
-        <v>0.2041453719139099</v>
+        <v>0.4368483424186707</v>
       </c>
       <c r="AG2">
-        <v>9.711382865905762</v>
+        <v>9.611315727233887</v>
       </c>
       <c r="AH2">
-        <v>-0.6479786038398743</v>
+        <v>-0.5410475134849548</v>
       </c>
       <c r="AI2">
-        <v>-7.763186931610107</v>
+        <v>-7.839440822601318</v>
       </c>
       <c r="AJ2">
-        <v>-0.2028291374444962</v>
+        <v>-0.3913636803627014</v>
       </c>
       <c r="AK2">
-        <v>-3.886720180511475</v>
+        <v>-4.00931453704834</v>
       </c>
       <c r="AL2">
-        <v>-2.537226438522339</v>
+        <v>-2.391120433807373</v>
       </c>
       <c r="AM2">
-        <v>16.92087173461914</v>
+        <v>16.6147518157959</v>
       </c>
       <c r="AN2">
-        <v>2.117859363555908</v>
+        <v>2.079214572906494</v>
       </c>
       <c r="AO2">
-        <v>-1.970232844352722</v>
+        <v>-1.912975907325745</v>
       </c>
       <c r="AP2">
-        <v>-2.482708692550659</v>
+        <v>-2.79982328414917</v>
       </c>
       <c r="AQ2">
-        <v>2.192580938339233</v>
+        <v>2.169280052185059</v>
       </c>
       <c r="AR2">
-        <v>10.84608364105225</v>
+        <v>10.99751758575439</v>
       </c>
       <c r="AS2">
-        <v>-3.67061448097229</v>
+        <v>-3.659563779830933</v>
       </c>
       <c r="AT2">
-        <v>-1.737512350082397</v>
+        <v>-1.818989038467407</v>
       </c>
       <c r="AU2">
-        <v>-0.991934061050415</v>
+        <v>-0.5083284974098206</v>
       </c>
       <c r="AV2">
-        <v>-4.874317646026611</v>
+        <v>-5.273048877716064</v>
       </c>
       <c r="AW2">
-        <v>1.71414840221405</v>
+        <v>2.004393339157104</v>
       </c>
       <c r="AX2">
-        <v>1.774172067642212</v>
+        <v>1.97016716003418</v>
       </c>
       <c r="AY2">
-        <v>4.155814647674561</v>
+        <v>3.978466987609863</v>
       </c>
       <c r="AZ2">
-        <v>-14.90762805938721</v>
+        <v>-15.19813060760498</v>
       </c>
       <c r="BA2">
-        <v>-1.71215283870697</v>
+        <v>-1.829267501831055</v>
       </c>
       <c r="BB2">
-        <v>17.02653694152832</v>
+        <v>16.93495559692383</v>
       </c>
       <c r="BC2">
-        <v>-1.779889345169067</v>
+        <v>-2.093230009078979</v>
       </c>
       <c r="BD2">
-        <v>0.03449889644980431</v>
+        <v>0.0200759582221508</v>
       </c>
       <c r="BE2">
-        <v>0.2513027787208557</v>
+        <v>-0.2605924010276794</v>
       </c>
       <c r="BF2">
-        <v>17.88712692260742</v>
+        <v>17.76608276367188</v>
       </c>
       <c r="BG2">
-        <v>-1.726025581359863</v>
+        <v>-1.936159133911133</v>
       </c>
       <c r="BH2">
-        <v>-1.369078278541565</v>
+        <v>-1.709689497947693</v>
       </c>
       <c r="BI2">
-        <v>-1.349561095237732</v>
+        <v>-1.710075974464417</v>
       </c>
       <c r="BJ2">
-        <v>5.371184349060059</v>
+        <v>5.098883152008057</v>
       </c>
       <c r="BK2">
-        <v>0.4761289358139038</v>
+        <v>0.8075410723686218</v>
       </c>
       <c r="BL2">
-        <v>-1.886371374130249</v>
+        <v>-1.767295837402344</v>
       </c>
       <c r="BM2">
-        <v>1.634006857872009</v>
+        <v>1.607630372047424</v>
       </c>
       <c r="BN2">
-        <v>-7.851880073547363</v>
+        <v>-8.014784812927246</v>
       </c>
       <c r="BO2">
-        <v>-4.596156597137451</v>
+        <v>-4.43391752243042</v>
       </c>
       <c r="BP2">
-        <v>11.53144073486328</v>
+        <v>11.41159725189209</v>
       </c>
       <c r="BQ2">
-        <v>-2.22389817237854</v>
+        <v>-2.354198455810547</v>
       </c>
       <c r="BR2">
-        <v>1.244030237197876</v>
+        <v>1.171342134475708</v>
       </c>
       <c r="BS2">
-        <v>-0.5564528703689575</v>
+        <v>-0.4122693240642548</v>
       </c>
       <c r="BT2">
-        <v>-4.223362922668457</v>
+        <v>-4.40637731552124</v>
       </c>
       <c r="BU2">
-        <v>1.072980165481567</v>
+        <v>1.077954292297363</v>
       </c>
       <c r="BV2">
-        <v>17.79602432250977</v>
+        <v>17.2609806060791</v>
       </c>
       <c r="BW2">
-        <v>0.8714364767074585</v>
+        <v>0.2935806512832642</v>
       </c>
       <c r="BX2">
-        <v>-1.875680208206177</v>
+        <v>-2.268486738204956</v>
       </c>
       <c r="BY2">
-        <v>1.525821208953857</v>
+        <v>0.8929210901260376</v>
       </c>
       <c r="BZ2">
-        <v>2.083368301391602</v>
+        <v>1.795387387275696</v>
       </c>
       <c r="CA2">
-        <v>4.250486373901367</v>
+        <v>4.654221057891846</v>
       </c>
       <c r="CB2">
-        <v>-6.817742347717285</v>
+        <v>-6.695699691772461</v>
       </c>
       <c r="CC2">
-        <v>0.0344737209379673</v>
+        <v>-0.199233740568161</v>
       </c>
       <c r="CD2">
-        <v>0.5985406041145325</v>
+        <v>0.8885661959648132</v>
       </c>
       <c r="CE2">
-        <v>-7.497985363006592</v>
+        <v>-7.51329517364502</v>
       </c>
       <c r="CF2">
-        <v>3.546985149383545</v>
+        <v>3.392818927764893</v>
       </c>
       <c r="CG2">
-        <v>-10.11642169952393</v>
+        <v>-9.889791488647461</v>
       </c>
       <c r="CH2">
-        <v>-5.224138736724854</v>
+        <v>-5.648987770080566</v>
       </c>
       <c r="CI2">
-        <v>0.02871044911444187</v>
+        <v>0.09279631823301315</v>
       </c>
       <c r="CJ2">
-        <v>-6.672986030578613</v>
+        <v>-6.540698528289795</v>
       </c>
       <c r="CK2">
-        <v>-0.8024160861968994</v>
+        <v>-0.6401113271713257</v>
       </c>
       <c r="CL2">
-        <v>-4.148355484008789</v>
+        <v>-4.322594165802002</v>
       </c>
       <c r="CM2">
-        <v>1.115072727203369</v>
+        <v>1.198490262031555</v>
       </c>
       <c r="CN2">
-        <v>-0.1327860653400421</v>
+        <v>-0.2856311500072479</v>
       </c>
       <c r="CO2">
-        <v>-1.630412459373474</v>
+        <v>-1.674074411392212</v>
       </c>
       <c r="CP2">
-        <v>-1.384437441825867</v>
+        <v>-1.522791624069214</v>
       </c>
       <c r="CQ2">
-        <v>-13.53692436218262</v>
+        <v>-13.54552555084229</v>
       </c>
       <c r="CR2">
-        <v>0.2119556367397308</v>
+        <v>0.4191838502883911</v>
       </c>
       <c r="CS2">
-        <v>0.279021680355072</v>
+        <v>-0.01030713319778442</v>
       </c>
       <c r="CT2">
-        <v>0.2112783044576645</v>
+        <v>-0.009810231626033783</v>
       </c>
       <c r="CU2">
-        <v>-1.777445673942566</v>
+        <v>-1.937661051750183</v>
       </c>
       <c r="CV2">
-        <v>0.8789957165718079</v>
+        <v>0.2099218368530273</v>
       </c>
       <c r="CW2">
-        <v>-10.25049591064453</v>
+        <v>-9.922432899475098</v>
       </c>
       <c r="CX2">
-        <v>-1.359413504600525</v>
+        <v>-0.9654199481010437</v>
       </c>
       <c r="CY2">
-        <v>-2.691069364547729</v>
+        <v>-2.390416860580444</v>
       </c>
       <c r="CZ2">
-        <v>-0.4791320264339447</v>
+        <v>-0.7079786062240601</v>
       </c>
       <c r="DA2">
-        <v>9.559276580810547</v>
+        <v>9.563299179077148</v>
       </c>
       <c r="DB2">
-        <v>4.155437469482422</v>
+        <v>3.946678876876831</v>
       </c>
       <c r="DC2">
-        <v>-1.948821067810059</v>
+        <v>-2.052582025527954</v>
       </c>
       <c r="DD2">
-        <v>-7.140111446380615</v>
+        <v>-7.553655624389648</v>
       </c>
       <c r="DE2">
-        <v>1.355371713638306</v>
+        <v>1.214514017105103</v>
       </c>
       <c r="DF2">
-        <v>10.83763122558594</v>
+        <v>10.82490634918213</v>
       </c>
       <c r="DG2">
-        <v>0.3563654720783234</v>
+        <v>0.06474141776561737</v>
       </c>
       <c r="DH2">
-        <v>-1.018167853355408</v>
+        <v>-1.030561923980713</v>
       </c>
       <c r="DI2">
-        <v>0.1662564128637314</v>
+        <v>0.1080304980278015</v>
       </c>
       <c r="DJ2">
-        <v>0.3985998630523682</v>
+        <v>1.051848530769348</v>
       </c>
       <c r="DK2">
-        <v>-7.110306739807129</v>
+        <v>-7.331469058990479</v>
       </c>
       <c r="DL2">
-        <v>4.060025215148926</v>
+        <v>4.230178356170654</v>
       </c>
       <c r="DM2">
-        <v>-3.50806999206543</v>
+        <v>-3.692980051040649</v>
       </c>
       <c r="DN2">
-        <v>-0.6608995199203491</v>
+        <v>-0.8304433822631836</v>
       </c>
       <c r="DO2">
-        <v>-13.48677921295166</v>
+        <v>-13.4546947479248</v>
       </c>
       <c r="DP2">
-        <v>-4.421633720397949</v>
+        <v>-4.6482834815979</v>
       </c>
       <c r="DQ2">
-        <v>0.4313422441482544</v>
+        <v>0.3423520624637604</v>
       </c>
       <c r="DR2">
-        <v>0.6077786087989807</v>
+        <v>1.063385486602783</v>
       </c>
       <c r="DS2">
-        <v>-4.841727256774902</v>
+        <v>-4.54205846786499</v>
       </c>
       <c r="DT2">
-        <v>-16.40925025939941</v>
+        <v>-16.89216041564941</v>
       </c>
       <c r="DU2">
-        <v>-1.905910968780518</v>
+        <v>-1.888801693916321</v>
       </c>
       <c r="DV2">
-        <v>0.09471508860588074</v>
+        <v>0.7385185360908508</v>
       </c>
       <c r="DW2">
-        <v>0.6577596664428711</v>
+        <v>0.4696526229381561</v>
       </c>
       <c r="DX2">
-        <v>0.2716026306152344</v>
+        <v>0.1048998758196831</v>
       </c>
       <c r="DY2">
-        <v>-5.69145393371582</v>
+        <v>-5.681686878204346</v>
       </c>
       <c r="DZ2">
-        <v>0.07564840465784073</v>
+        <v>0.6643862724304199</v>
       </c>
       <c r="EA2">
-        <v>1.310606241226196</v>
+        <v>1.014735221862793</v>
       </c>
       <c r="EB2">
-        <v>-0.1208911016583443</v>
+        <v>-0.2634450197219849</v>
       </c>
       <c r="EC2">
-        <v>1.426451563835144</v>
+        <v>1.491849184036255</v>
       </c>
       <c r="ED2">
-        <v>-3.863954544067383</v>
+        <v>-4.171433925628662</v>
       </c>
       <c r="EE2">
-        <v>1.532527804374695</v>
+        <v>1.515506625175476</v>
       </c>
       <c r="EF2">
-        <v>16.05831718444824</v>
+        <v>16.35277557373047</v>
       </c>
       <c r="EG2">
-        <v>-2.155385971069336</v>
+        <v>-2.406084060668945</v>
       </c>
       <c r="EH2">
-        <v>-19.80855941772461</v>
+        <v>-20.43326759338379</v>
       </c>
       <c r="EI2">
-        <v>1.084243416786194</v>
+        <v>0.8162206411361694</v>
       </c>
       <c r="EJ2">
-        <v>4.39906644821167</v>
+        <v>4.249953269958496</v>
       </c>
       <c r="EK2">
-        <v>1.761236906051636</v>
+        <v>1.572254061698914</v>
       </c>
       <c r="EL2">
-        <v>0.02758662216365337</v>
+        <v>-0.017678402364254</v>
       </c>
       <c r="EM2">
-        <v>1.201824188232422</v>
+        <v>1.069234013557434</v>
       </c>
       <c r="EN2">
-        <v>4.019971370697021</v>
+        <v>3.661182165145874</v>
       </c>
       <c r="EO2">
-        <v>-1.692144155502319</v>
+        <v>-1.5334792137146</v>
       </c>
       <c r="EP2">
-        <v>-11.42773246765137</v>
+        <v>-11.66952037811279</v>
       </c>
       <c r="EQ2">
-        <v>7.726810455322266</v>
+        <v>7.863340377807617</v>
       </c>
       <c r="ER2">
-        <v>1.867834568023682</v>
+        <v>2.132571458816528</v>
       </c>
       <c r="ES2">
-        <v>-3.797411680221558</v>
+        <v>-4.225054740905762</v>
       </c>
       <c r="ET2">
-        <v>-3.75157904624939</v>
+        <v>-4.190627574920654</v>
       </c>
       <c r="EU2">
-        <v>5.892817497253418</v>
+        <v>6.07970142364502</v>
       </c>
       <c r="EV2">
-        <v>-10.63676452636719</v>
+        <v>-10.42367744445801</v>
       </c>
       <c r="EW2">
-        <v>2.337226867675781</v>
+        <v>2.60585880279541</v>
       </c>
       <c r="EX2">
-        <v>-6.185803413391113</v>
+        <v>-6.286946773529053</v>
       </c>
       <c r="EY2">
-        <v>-0.9991866946220398</v>
+        <v>-1.138583540916443</v>
       </c>
       <c r="EZ2">
-        <v>0.8805392384529114</v>
+        <v>1.045369982719421</v>
       </c>
       <c r="FA2">
-        <v>-0.1079966351389885</v>
+        <v>-0.2922409772872925</v>
       </c>
       <c r="FB2">
-        <v>-1.202072620391846</v>
+        <v>-1.222415208816528</v>
       </c>
       <c r="FC2">
-        <v>-9.394997596740723</v>
+        <v>-9.674317359924316</v>
       </c>
       <c r="FD2">
-        <v>1.016698241233826</v>
+        <v>0.7434402704238892</v>
       </c>
       <c r="FE2">
-        <v>-0.6306658387184143</v>
+        <v>-0.3761057257652283</v>
       </c>
       <c r="FF2">
-        <v>3.505562543869019</v>
+        <v>3.200761795043945</v>
       </c>
       <c r="FG2">
-        <v>-15.33132457733154</v>
+        <v>-15.71422958374023</v>
       </c>
       <c r="FH2">
-        <v>0.08398744463920593</v>
+        <v>0.02851260825991631</v>
       </c>
       <c r="FI2">
-        <v>2.337628126144409</v>
+        <v>2.742499113082886</v>
       </c>
       <c r="FJ2">
-        <v>-6.121195316314697</v>
+        <v>-6.973452568054199</v>
       </c>
       <c r="FK2">
-        <v>7.236096382141113</v>
+        <v>6.9188551902771</v>
       </c>
       <c r="FL2">
-        <v>-2.113441705703735</v>
+        <v>-2.085341930389404</v>
       </c>
       <c r="FM2">
-        <v>-3.839778661727905</v>
+        <v>-4.284225940704346</v>
       </c>
       <c r="FN2">
-        <v>-8.240930557250977</v>
+        <v>-8.344855308532715</v>
       </c>
       <c r="FO2">
-        <v>-0.1963926404714584</v>
+        <v>0.05931532010436058</v>
       </c>
       <c r="FP2">
-        <v>-0.1731424927711487</v>
+        <v>-0.7756878733634949</v>
       </c>
       <c r="FQ2">
-        <v>1.389070510864258</v>
+        <v>1.418554782867432</v>
       </c>
       <c r="FR2">
-        <v>-0.07635632157325745</v>
+        <v>-0.1630435585975647</v>
       </c>
       <c r="FS2">
-        <v>1.461829543113708</v>
+        <v>1.257013440132141</v>
       </c>
       <c r="FT2">
-        <v>-0.5307108759880066</v>
+        <v>-0.5513647794723511</v>
       </c>
       <c r="FU2">
-        <v>-3.926857471466064</v>
+        <v>-4.256638050079346</v>
       </c>
       <c r="FV2">
-        <v>0.4950304627418518</v>
+        <v>0.6118526458740234</v>
       </c>
       <c r="FW2">
-        <v>-2.348592758178711</v>
+        <v>-2.741254329681396</v>
       </c>
       <c r="FX2">
-        <v>2.726003170013428</v>
+        <v>2.626927375793457</v>
       </c>
       <c r="FY2">
-        <v>2.575139045715332</v>
+        <v>2.181501626968384</v>
       </c>
       <c r="FZ2">
-        <v>-1.36119019985199</v>
+        <v>-1.589920043945312</v>
       </c>
       <c r="GA2">
-        <v>0.1792372465133667</v>
+        <v>0.1353699713945389</v>
       </c>
       <c r="GB2">
-        <v>-1.566348075866699</v>
+        <v>-1.714608192443848</v>
       </c>
       <c r="GC2">
-        <v>12.56292533874512</v>
+        <v>12.37880039215088</v>
       </c>
       <c r="GD2">
-        <v>-14.97962188720703</v>
+        <v>-15.2452449798584</v>
       </c>
       <c r="GE2">
-        <v>-1.596099376678467</v>
+        <v>-1.644946813583374</v>
       </c>
       <c r="GF2">
-        <v>-10.10649967193604</v>
+        <v>-10.65383911132812</v>
       </c>
       <c r="GG2">
-        <v>-6.770732402801514</v>
+        <v>-7.294384956359863</v>
       </c>
       <c r="GH2">
-        <v>0.3403124511241913</v>
+        <v>0.09606848657131195</v>
       </c>
       <c r="GI2">
-        <v>1.150794386863708</v>
+        <v>1.385057926177979</v>
       </c>
       <c r="GJ2">
-        <v>0.9264936447143555</v>
+        <v>1.273053646087646</v>
       </c>
       <c r="GK2">
-        <v>10.85791206359863</v>
+        <v>10.37425804138184</v>
       </c>
       <c r="GL2">
-        <v>1.042912840843201</v>
+        <v>0.7972782850265503</v>
       </c>
       <c r="GM2">
-        <v>-2.866143465042114</v>
+        <v>-2.96934962272644</v>
       </c>
       <c r="GN2">
-        <v>5.183456897735596</v>
+        <v>5.053692817687988</v>
       </c>
       <c r="GO2">
-        <v>-10.02111721038818</v>
+        <v>-10.66687774658203</v>
       </c>
       <c r="GP2">
-        <v>3.127333402633667</v>
+        <v>2.997885704040527</v>
       </c>
       <c r="GQ2">
-        <v>0.8264690637588501</v>
+        <v>0.7513968348503113</v>
       </c>
       <c r="GR2">
-        <v>-0.9707849621772766</v>
+        <v>-1.126163959503174</v>
       </c>
       <c r="GS2">
-        <v>4.107458591461182</v>
+        <v>4.424739837646484</v>
       </c>
       <c r="GT2">
-        <v>-0.7607190608978271</v>
+        <v>-0.5131378173828125</v>
       </c>
       <c r="GU2">
-        <v>-5.546043395996094</v>
+        <v>-5.331531524658203</v>
       </c>
       <c r="GV2">
-        <v>-0.02852940559387207</v>
+        <v>0.08619288355112076</v>
       </c>
       <c r="GW2">
-        <v>-1.979710698127747</v>
+        <v>-1.63306999206543</v>
       </c>
       <c r="GX2">
-        <v>3.09718132019043</v>
+        <v>2.932411432266235</v>
       </c>
       <c r="GY2">
-        <v>-1.782329797744751</v>
+        <v>-1.766698956489563</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Multi Nationals.xlsx
+++ b/static/Models/Classification/Equation/Multi Nationals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-22</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-3.012264251708984</v>
+        <v>-2.833794593811035</v>
       </c>
       <c r="C2">
-        <v>3.065895318984985</v>
+        <v>3.091947793960571</v>
       </c>
       <c r="D2">
-        <v>-9.126424789428711</v>
+        <v>-9.366856575012207</v>
       </c>
       <c r="E2">
-        <v>14.88801383972168</v>
+        <v>15.29879283905029</v>
       </c>
       <c r="F2">
-        <v>-1.27103054523468</v>
+        <v>-1.024554133415222</v>
       </c>
       <c r="G2">
-        <v>2.44749903678894</v>
+        <v>2.504412174224854</v>
       </c>
       <c r="H2">
-        <v>-0.4732262194156647</v>
+        <v>-0.2870205938816071</v>
       </c>
       <c r="I2">
-        <v>2.943925857543945</v>
+        <v>3.269111156463623</v>
       </c>
       <c r="J2">
-        <v>3.478859424591064</v>
+        <v>3.789810419082642</v>
       </c>
       <c r="K2">
-        <v>1.441834688186646</v>
+        <v>1.574983596801758</v>
       </c>
       <c r="L2">
-        <v>-0.6430962681770325</v>
+        <v>-0.5093247890472412</v>
       </c>
       <c r="M2">
-        <v>-0.8877533674240112</v>
+        <v>-1.170889139175415</v>
       </c>
       <c r="N2">
-        <v>-1.003731250762939</v>
+        <v>-0.9478834271430969</v>
       </c>
       <c r="O2">
-        <v>4.92530345916748</v>
+        <v>5.001136302947998</v>
       </c>
       <c r="P2">
-        <v>6.536264419555664</v>
+        <v>6.383015155792236</v>
       </c>
       <c r="Q2">
-        <v>-4.326470851898193</v>
+        <v>-4.293782234191895</v>
       </c>
       <c r="R2">
-        <v>-0.1840904355049133</v>
+        <v>0.240090548992157</v>
       </c>
       <c r="S2">
-        <v>-16.53437042236328</v>
+        <v>-16.3360710144043</v>
       </c>
       <c r="T2">
-        <v>0.02475104108452797</v>
+        <v>0.1800574958324432</v>
       </c>
       <c r="U2">
-        <v>-6.770524501800537</v>
+        <v>-6.179933547973633</v>
       </c>
       <c r="V2">
-        <v>0.9846449494361877</v>
+        <v>0.5212702751159668</v>
       </c>
       <c r="W2">
-        <v>-3.851970911026001</v>
+        <v>-3.608834028244019</v>
       </c>
       <c r="X2">
-        <v>-0.9372811913490295</v>
+        <v>-1.456495642662048</v>
       </c>
       <c r="Y2">
-        <v>0.6441301107406616</v>
+        <v>0.4359665811061859</v>
       </c>
       <c r="Z2">
-        <v>0.6202028393745422</v>
+        <v>0.8126370310783386</v>
       </c>
       <c r="AA2">
-        <v>0.8248758316040039</v>
+        <v>0.9074603915214539</v>
       </c>
       <c r="AB2">
-        <v>4.718175888061523</v>
+        <v>4.661519050598145</v>
       </c>
       <c r="AC2">
-        <v>-9.459526062011719</v>
+        <v>-9.147393226623535</v>
       </c>
       <c r="AD2">
-        <v>-0.2370166331529617</v>
+        <v>-0.2326474487781525</v>
       </c>
       <c r="AE2">
-        <v>-6.222480773925781</v>
+        <v>-6.278778553009033</v>
       </c>
       <c r="AF2">
-        <v>0.4368483424186707</v>
+        <v>0.2041453719139099</v>
       </c>
       <c r="AG2">
-        <v>9.611315727233887</v>
+        <v>9.711382865905762</v>
       </c>
       <c r="AH2">
-        <v>-0.5410475134849548</v>
+        <v>-0.6479786038398743</v>
       </c>
       <c r="AI2">
-        <v>-7.839440822601318</v>
+        <v>-7.763186931610107</v>
       </c>
       <c r="AJ2">
-        <v>-0.3913636803627014</v>
+        <v>-0.2028291374444962</v>
       </c>
       <c r="AK2">
-        <v>-4.00931453704834</v>
+        <v>-3.886720180511475</v>
       </c>
       <c r="AL2">
-        <v>-2.391120433807373</v>
+        <v>-2.537226438522339</v>
       </c>
       <c r="AM2">
-        <v>16.6147518157959</v>
+        <v>16.92087173461914</v>
       </c>
       <c r="AN2">
-        <v>2.079214572906494</v>
+        <v>2.117859363555908</v>
       </c>
       <c r="AO2">
-        <v>-1.912975907325745</v>
+        <v>-1.970232844352722</v>
       </c>
       <c r="AP2">
-        <v>-2.79982328414917</v>
+        <v>-2.482708692550659</v>
       </c>
       <c r="AQ2">
-        <v>2.169280052185059</v>
+        <v>2.192580938339233</v>
       </c>
       <c r="AR2">
-        <v>10.99751758575439</v>
+        <v>10.84608364105225</v>
       </c>
       <c r="AS2">
-        <v>-3.659563779830933</v>
+        <v>-3.67061448097229</v>
       </c>
       <c r="AT2">
-        <v>-1.818989038467407</v>
+        <v>-1.737512350082397</v>
       </c>
       <c r="AU2">
-        <v>-0.5083284974098206</v>
+        <v>-0.991934061050415</v>
       </c>
       <c r="AV2">
-        <v>-5.273048877716064</v>
+        <v>-4.874317646026611</v>
       </c>
       <c r="AW2">
-        <v>2.004393339157104</v>
+        <v>1.71414840221405</v>
       </c>
       <c r="AX2">
-        <v>1.97016716003418</v>
+        <v>1.774172067642212</v>
       </c>
       <c r="AY2">
-        <v>3.978466987609863</v>
+        <v>4.155814647674561</v>
       </c>
       <c r="AZ2">
-        <v>-15.19813060760498</v>
+        <v>-14.90762805938721</v>
       </c>
       <c r="BA2">
-        <v>-1.829267501831055</v>
+        <v>-1.71215283870697</v>
       </c>
       <c r="BB2">
-        <v>16.93495559692383</v>
+        <v>17.02653694152832</v>
       </c>
       <c r="BC2">
-        <v>-2.093230009078979</v>
+        <v>-1.779889345169067</v>
       </c>
       <c r="BD2">
-        <v>0.0200759582221508</v>
+        <v>0.03449889644980431</v>
       </c>
       <c r="BE2">
-        <v>-0.2605924010276794</v>
+        <v>0.2513027787208557</v>
       </c>
       <c r="BF2">
-        <v>17.76608276367188</v>
+        <v>17.88712692260742</v>
       </c>
       <c r="BG2">
-        <v>-1.936159133911133</v>
+        <v>-1.726025581359863</v>
       </c>
       <c r="BH2">
-        <v>-1.709689497947693</v>
+        <v>-1.369078278541565</v>
       </c>
       <c r="BI2">
-        <v>-1.710075974464417</v>
+        <v>-1.349561095237732</v>
       </c>
       <c r="BJ2">
-        <v>5.098883152008057</v>
+        <v>5.371184349060059</v>
       </c>
       <c r="BK2">
-        <v>0.8075410723686218</v>
+        <v>0.4761289358139038</v>
       </c>
       <c r="BL2">
-        <v>-1.767295837402344</v>
+        <v>-1.886371374130249</v>
       </c>
       <c r="BM2">
-        <v>1.607630372047424</v>
+        <v>1.634006857872009</v>
       </c>
       <c r="BN2">
-        <v>-8.014784812927246</v>
+        <v>-7.851880073547363</v>
       </c>
       <c r="BO2">
-        <v>-4.43391752243042</v>
+        <v>-4.596156597137451</v>
       </c>
       <c r="BP2">
-        <v>11.41159725189209</v>
+        <v>11.53144073486328</v>
       </c>
       <c r="BQ2">
-        <v>-2.354198455810547</v>
+        <v>-2.22389817237854</v>
       </c>
       <c r="BR2">
-        <v>1.171342134475708</v>
+        <v>1.244030237197876</v>
       </c>
       <c r="BS2">
-        <v>-0.4122693240642548</v>
+        <v>-0.5564528703689575</v>
       </c>
       <c r="BT2">
-        <v>-4.40637731552124</v>
+        <v>-4.223362922668457</v>
       </c>
       <c r="BU2">
-        <v>1.077954292297363</v>
+        <v>1.072980165481567</v>
       </c>
       <c r="BV2">
-        <v>17.2609806060791</v>
+        <v>17.79602432250977</v>
       </c>
       <c r="BW2">
-        <v>0.2935806512832642</v>
+        <v>0.8714364767074585</v>
       </c>
       <c r="BX2">
-        <v>-2.268486738204956</v>
+        <v>-1.875680208206177</v>
       </c>
       <c r="BY2">
-        <v>0.8929210901260376</v>
+        <v>1.525821208953857</v>
       </c>
       <c r="BZ2">
-        <v>1.795387387275696</v>
+        <v>2.083368301391602</v>
       </c>
       <c r="CA2">
-        <v>4.654221057891846</v>
+        <v>4.250486373901367</v>
       </c>
       <c r="CB2">
-        <v>-6.695699691772461</v>
+        <v>-6.817742347717285</v>
       </c>
       <c r="CC2">
-        <v>-0.199233740568161</v>
+        <v>0.0344737209379673</v>
       </c>
       <c r="CD2">
-        <v>0.8885661959648132</v>
+        <v>0.5985406041145325</v>
       </c>
       <c r="CE2">
-        <v>-7.51329517364502</v>
+        <v>-7.497985363006592</v>
       </c>
       <c r="CF2">
-        <v>3.392818927764893</v>
+        <v>3.546985149383545</v>
       </c>
       <c r="CG2">
-        <v>-9.889791488647461</v>
+        <v>-10.11642169952393</v>
       </c>
       <c r="CH2">
-        <v>-5.648987770080566</v>
+        <v>-5.224138736724854</v>
       </c>
       <c r="CI2">
-        <v>0.09279631823301315</v>
+        <v>0.02871044911444187</v>
       </c>
       <c r="CJ2">
-        <v>-6.540698528289795</v>
+        <v>-6.672986030578613</v>
       </c>
       <c r="CK2">
-        <v>-0.6401113271713257</v>
+        <v>-0.8024160861968994</v>
       </c>
       <c r="CL2">
-        <v>-4.322594165802002</v>
+        <v>-4.148355484008789</v>
       </c>
       <c r="CM2">
-        <v>1.198490262031555</v>
+        <v>1.115072727203369</v>
       </c>
       <c r="CN2">
-        <v>-0.2856311500072479</v>
+        <v>-0.1327860653400421</v>
       </c>
       <c r="CO2">
-        <v>-1.674074411392212</v>
+        <v>-1.630412459373474</v>
       </c>
       <c r="CP2">
-        <v>-1.522791624069214</v>
+        <v>-1.384437441825867</v>
       </c>
       <c r="CQ2">
-        <v>-13.54552555084229</v>
+        <v>-13.53692436218262</v>
       </c>
       <c r="CR2">
-        <v>0.4191838502883911</v>
+        <v>0.2119556367397308</v>
       </c>
       <c r="CS2">
-        <v>-0.01030713319778442</v>
+        <v>0.279021680355072</v>
       </c>
       <c r="CT2">
-        <v>-0.009810231626033783</v>
+        <v>0.2112783044576645</v>
       </c>
       <c r="CU2">
-        <v>-1.937661051750183</v>
+        <v>-1.777445673942566</v>
       </c>
       <c r="CV2">
-        <v>0.2099218368530273</v>
+        <v>0.8789957165718079</v>
       </c>
       <c r="CW2">
-        <v>-9.922432899475098</v>
+        <v>-10.25049591064453</v>
       </c>
       <c r="CX2">
-        <v>-0.9654199481010437</v>
+        <v>-1.359413504600525</v>
       </c>
       <c r="CY2">
-        <v>-2.390416860580444</v>
+        <v>-2.691069364547729</v>
       </c>
       <c r="CZ2">
-        <v>-0.7079786062240601</v>
+        <v>-0.4791320264339447</v>
       </c>
       <c r="DA2">
-        <v>9.563299179077148</v>
+        <v>9.559276580810547</v>
       </c>
       <c r="DB2">
-        <v>3.946678876876831</v>
+        <v>4.155437469482422</v>
       </c>
       <c r="DC2">
-        <v>-2.052582025527954</v>
+        <v>-1.948821067810059</v>
       </c>
       <c r="DD2">
-        <v>-7.553655624389648</v>
+        <v>-7.140111446380615</v>
       </c>
       <c r="DE2">
-        <v>1.214514017105103</v>
+        <v>1.355371713638306</v>
       </c>
       <c r="DF2">
-        <v>10.82490634918213</v>
+        <v>10.83763122558594</v>
       </c>
       <c r="DG2">
-        <v>0.06474141776561737</v>
+        <v>0.3563654720783234</v>
       </c>
       <c r="DH2">
-        <v>-1.030561923980713</v>
+        <v>-1.018167853355408</v>
       </c>
       <c r="DI2">
-        <v>0.1080304980278015</v>
+        <v>0.1662564128637314</v>
       </c>
       <c r="DJ2">
-        <v>1.051848530769348</v>
+        <v>0.3985998630523682</v>
       </c>
       <c r="DK2">
-        <v>-7.331469058990479</v>
+        <v>-7.110306739807129</v>
       </c>
       <c r="DL2">
-        <v>4.230178356170654</v>
+        <v>4.060025215148926</v>
       </c>
       <c r="DM2">
-        <v>-3.692980051040649</v>
+        <v>-3.50806999206543</v>
       </c>
       <c r="DN2">
-        <v>-0.8304433822631836</v>
+        <v>-0.6608995199203491</v>
       </c>
       <c r="DO2">
-        <v>-13.4546947479248</v>
+        <v>-13.48677921295166</v>
       </c>
       <c r="DP2">
-        <v>-4.6482834815979</v>
+        <v>-4.421633720397949</v>
       </c>
       <c r="DQ2">
-        <v>0.3423520624637604</v>
+        <v>0.4313422441482544</v>
       </c>
       <c r="DR2">
-        <v>1.063385486602783</v>
+        <v>0.6077786087989807</v>
       </c>
       <c r="DS2">
-        <v>-4.54205846786499</v>
+        <v>-4.841727256774902</v>
       </c>
       <c r="DT2">
-        <v>-16.89216041564941</v>
+        <v>-16.40925025939941</v>
       </c>
       <c r="DU2">
-        <v>-1.888801693916321</v>
+        <v>-1.905910968780518</v>
       </c>
       <c r="DV2">
-        <v>0.7385185360908508</v>
+        <v>0.09471508860588074</v>
       </c>
       <c r="DW2">
-        <v>0.4696526229381561</v>
+        <v>0.6577596664428711</v>
       </c>
       <c r="DX2">
-        <v>0.1048998758196831</v>
+        <v>0.2716026306152344</v>
       </c>
       <c r="DY2">
-        <v>-5.681686878204346</v>
+        <v>-5.69145393371582</v>
       </c>
       <c r="DZ2">
-        <v>0.6643862724304199</v>
+        <v>0.07564840465784073</v>
       </c>
       <c r="EA2">
-        <v>1.014735221862793</v>
+        <v>1.310606241226196</v>
       </c>
       <c r="EB2">
-        <v>-0.2634450197219849</v>
+        <v>-0.1208911016583443</v>
       </c>
       <c r="EC2">
-        <v>1.491849184036255</v>
+        <v>1.426451563835144</v>
       </c>
       <c r="ED2">
-        <v>-4.171433925628662</v>
+        <v>-3.863954544067383</v>
       </c>
       <c r="EE2">
-        <v>1.515506625175476</v>
+        <v>1.532527804374695</v>
       </c>
       <c r="EF2">
-        <v>16.35277557373047</v>
+        <v>16.05831718444824</v>
       </c>
       <c r="EG2">
-        <v>-2.406084060668945</v>
+        <v>-2.155385971069336</v>
       </c>
       <c r="EH2">
-        <v>-20.43326759338379</v>
+        <v>-19.80855941772461</v>
       </c>
       <c r="EI2">
-        <v>0.8162206411361694</v>
+        <v>1.084243416786194</v>
       </c>
       <c r="EJ2">
-        <v>4.249953269958496</v>
+        <v>4.39906644821167</v>
       </c>
       <c r="EK2">
-        <v>1.572254061698914</v>
+        <v>1.761236906051636</v>
       </c>
       <c r="EL2">
-        <v>-0.017678402364254</v>
+        <v>0.02758662216365337</v>
       </c>
       <c r="EM2">
-        <v>1.069234013557434</v>
+        <v>1.201824188232422</v>
       </c>
       <c r="EN2">
-        <v>3.661182165145874</v>
+        <v>4.019971370697021</v>
       </c>
       <c r="EO2">
-        <v>-1.5334792137146</v>
+        <v>-1.692144155502319</v>
       </c>
       <c r="EP2">
-        <v>-11.66952037811279</v>
+        <v>-11.42773246765137</v>
       </c>
       <c r="EQ2">
-        <v>7.863340377807617</v>
+        <v>7.726810455322266</v>
       </c>
       <c r="ER2">
-        <v>2.132571458816528</v>
+        <v>1.867834568023682</v>
       </c>
       <c r="ES2">
-        <v>-4.225054740905762</v>
+        <v>-3.797411680221558</v>
       </c>
       <c r="ET2">
-        <v>-4.190627574920654</v>
+        <v>-3.75157904624939</v>
       </c>
       <c r="EU2">
-        <v>6.07970142364502</v>
+        <v>5.892817497253418</v>
       </c>
       <c r="EV2">
-        <v>-10.42367744445801</v>
+        <v>-10.63676452636719</v>
       </c>
       <c r="EW2">
-        <v>2.60585880279541</v>
+        <v>2.337226867675781</v>
       </c>
       <c r="EX2">
-        <v>-6.286946773529053</v>
+        <v>-6.185803413391113</v>
       </c>
       <c r="EY2">
-        <v>-1.138583540916443</v>
+        <v>-0.9991866946220398</v>
       </c>
       <c r="EZ2">
-        <v>1.045369982719421</v>
+        <v>0.8805392384529114</v>
       </c>
       <c r="FA2">
-        <v>-0.2922409772872925</v>
+        <v>-0.1079966351389885</v>
       </c>
       <c r="FB2">
-        <v>-1.222415208816528</v>
+        <v>-1.202072620391846</v>
       </c>
       <c r="FC2">
-        <v>-9.674317359924316</v>
+        <v>-9.394997596740723</v>
       </c>
       <c r="FD2">
-        <v>0.7434402704238892</v>
+        <v>1.016698241233826</v>
       </c>
       <c r="FE2">
-        <v>-0.3761057257652283</v>
+        <v>-0.6306658387184143</v>
       </c>
       <c r="FF2">
-        <v>3.200761795043945</v>
+        <v>3.505562543869019</v>
       </c>
       <c r="FG2">
-        <v>-15.71422958374023</v>
+        <v>-15.33132457733154</v>
       </c>
       <c r="FH2">
-        <v>0.02851260825991631</v>
+        <v>0.08398744463920593</v>
       </c>
       <c r="FI2">
-        <v>2.742499113082886</v>
+        <v>2.337628126144409</v>
       </c>
       <c r="FJ2">
-        <v>-6.973452568054199</v>
+        <v>-6.121195316314697</v>
       </c>
       <c r="FK2">
-        <v>6.9188551902771</v>
+        <v>7.236096382141113</v>
       </c>
       <c r="FL2">
-        <v>-2.085341930389404</v>
+        <v>-2.113441705703735</v>
       </c>
       <c r="FM2">
-        <v>-4.284225940704346</v>
+        <v>-3.839778661727905</v>
       </c>
       <c r="FN2">
-        <v>-8.344855308532715</v>
+        <v>-8.240930557250977</v>
       </c>
       <c r="FO2">
-        <v>0.05931532010436058</v>
+        <v>-0.1963926404714584</v>
       </c>
       <c r="FP2">
-        <v>-0.7756878733634949</v>
+        <v>-0.1731424927711487</v>
       </c>
       <c r="FQ2">
-        <v>1.418554782867432</v>
+        <v>1.389070510864258</v>
       </c>
       <c r="FR2">
-        <v>-0.1630435585975647</v>
+        <v>-0.07635632157325745</v>
       </c>
       <c r="FS2">
-        <v>1.257013440132141</v>
+        <v>1.461829543113708</v>
       </c>
       <c r="FT2">
-        <v>-0.5513647794723511</v>
+        <v>-0.5307108759880066</v>
       </c>
       <c r="FU2">
-        <v>-4.256638050079346</v>
+        <v>-3.926857471466064</v>
       </c>
       <c r="FV2">
-        <v>0.6118526458740234</v>
+        <v>0.4950304627418518</v>
       </c>
       <c r="FW2">
-        <v>-2.741254329681396</v>
+        <v>-2.348592758178711</v>
       </c>
       <c r="FX2">
-        <v>2.626927375793457</v>
+        <v>2.726003170013428</v>
       </c>
       <c r="FY2">
-        <v>2.181501626968384</v>
+        <v>2.575139045715332</v>
       </c>
       <c r="FZ2">
-        <v>-1.589920043945312</v>
+        <v>-1.36119019985199</v>
       </c>
       <c r="GA2">
-        <v>0.1353699713945389</v>
+        <v>0.1792372465133667</v>
       </c>
       <c r="GB2">
-        <v>-1.714608192443848</v>
+        <v>-1.566348075866699</v>
       </c>
       <c r="GC2">
-        <v>12.37880039215088</v>
+        <v>12.56292533874512</v>
       </c>
       <c r="GD2">
-        <v>-15.2452449798584</v>
+        <v>-14.97962188720703</v>
       </c>
       <c r="GE2">
-        <v>-1.644946813583374</v>
+        <v>-1.596099376678467</v>
       </c>
       <c r="GF2">
-        <v>-10.65383911132812</v>
+        <v>-10.10649967193604</v>
       </c>
       <c r="GG2">
-        <v>-7.294384956359863</v>
+        <v>-6.770732402801514</v>
       </c>
       <c r="GH2">
-        <v>0.09606848657131195</v>
+        <v>0.3403124511241913</v>
       </c>
       <c r="GI2">
-        <v>1.385057926177979</v>
+        <v>1.150794386863708</v>
       </c>
       <c r="GJ2">
-        <v>1.273053646087646</v>
+        <v>0.9264936447143555</v>
       </c>
       <c r="GK2">
-        <v>10.37425804138184</v>
+        <v>10.85791206359863</v>
       </c>
       <c r="GL2">
-        <v>0.7972782850265503</v>
+        <v>1.042912840843201</v>
       </c>
       <c r="GM2">
-        <v>-2.96934962272644</v>
+        <v>-2.866143465042114</v>
       </c>
       <c r="GN2">
-        <v>5.053692817687988</v>
+        <v>5.183456897735596</v>
       </c>
       <c r="GO2">
-        <v>-10.66687774658203</v>
+        <v>-10.02111721038818</v>
       </c>
       <c r="GP2">
-        <v>2.997885704040527</v>
+        <v>3.127333402633667</v>
       </c>
       <c r="GQ2">
-        <v>0.7513968348503113</v>
+        <v>0.8264690637588501</v>
       </c>
       <c r="GR2">
-        <v>-1.126163959503174</v>
+        <v>-0.9707849621772766</v>
       </c>
       <c r="GS2">
-        <v>4.424739837646484</v>
+        <v>4.107458591461182</v>
       </c>
       <c r="GT2">
-        <v>-0.5131378173828125</v>
+        <v>-0.7607190608978271</v>
       </c>
       <c r="GU2">
-        <v>-5.331531524658203</v>
+        <v>-5.546043395996094</v>
       </c>
       <c r="GV2">
-        <v>0.08619288355112076</v>
+        <v>-0.02852940559387207</v>
       </c>
       <c r="GW2">
-        <v>-1.63306999206543</v>
+        <v>-1.979710698127747</v>
       </c>
       <c r="GX2">
-        <v>2.932411432266235</v>
+        <v>3.09718132019043</v>
       </c>
       <c r="GY2">
-        <v>-1.766698956489563</v>
+        <v>-1.782329797744751</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Multi Nationals.xlsx
+++ b/static/Models/Classification/Equation/Multi Nationals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-2.833794593811035</v>
+        <v>-2.418330192565918</v>
       </c>
       <c r="C2">
-        <v>3.091947793960571</v>
+        <v>3.042300701141357</v>
       </c>
       <c r="D2">
-        <v>-9.366856575012207</v>
+        <v>-9.872481346130371</v>
       </c>
       <c r="E2">
-        <v>15.29879283905029</v>
+        <v>14.56569385528564</v>
       </c>
       <c r="F2">
-        <v>-1.024554133415222</v>
+        <v>-0.6798635721206665</v>
       </c>
       <c r="G2">
-        <v>2.504412174224854</v>
+        <v>1.655970931053162</v>
       </c>
       <c r="H2">
-        <v>-0.2870205938816071</v>
+        <v>-0.5453548431396484</v>
       </c>
       <c r="I2">
-        <v>3.269111156463623</v>
+        <v>3.571603536605835</v>
       </c>
       <c r="J2">
-        <v>3.789810419082642</v>
+        <v>3.766860008239746</v>
       </c>
       <c r="K2">
-        <v>1.574983596801758</v>
+        <v>0.7487863302230835</v>
       </c>
       <c r="L2">
-        <v>-0.5093247890472412</v>
+        <v>-0.2663452327251434</v>
       </c>
       <c r="M2">
-        <v>-1.170889139175415</v>
+        <v>-0.587117075920105</v>
       </c>
       <c r="N2">
-        <v>-0.9478834271430969</v>
+        <v>-1.223537087440491</v>
       </c>
       <c r="O2">
-        <v>5.001136302947998</v>
+        <v>5.127668857574463</v>
       </c>
       <c r="P2">
-        <v>6.383015155792236</v>
+        <v>5.61162281036377</v>
       </c>
       <c r="Q2">
-        <v>-4.293782234191895</v>
+        <v>-3.887664318084717</v>
       </c>
       <c r="R2">
-        <v>0.240090548992157</v>
+        <v>-1.013395547866821</v>
       </c>
       <c r="S2">
-        <v>-16.3360710144043</v>
+        <v>-16.51910209655762</v>
       </c>
       <c r="T2">
-        <v>0.1800574958324432</v>
+        <v>-0.4442393183708191</v>
       </c>
       <c r="U2">
-        <v>-6.179933547973633</v>
+        <v>-6.592614650726318</v>
       </c>
       <c r="V2">
-        <v>0.5212702751159668</v>
+        <v>0.6203255653381348</v>
       </c>
       <c r="W2">
-        <v>-3.608834028244019</v>
+        <v>-3.267914056777954</v>
       </c>
       <c r="X2">
-        <v>-1.456495642662048</v>
+        <v>-0.24834243953228</v>
       </c>
       <c r="Y2">
-        <v>0.4359665811061859</v>
+        <v>0.04338180646300316</v>
       </c>
       <c r="Z2">
-        <v>0.8126370310783386</v>
+        <v>0.6979026794433594</v>
       </c>
       <c r="AA2">
-        <v>0.9074603915214539</v>
+        <v>1.395874738693237</v>
       </c>
       <c r="AB2">
-        <v>4.661519050598145</v>
+        <v>5.41505765914917</v>
       </c>
       <c r="AC2">
-        <v>-9.147393226623535</v>
+        <v>-8.67423152923584</v>
       </c>
       <c r="AD2">
-        <v>-0.2326474487781525</v>
+        <v>0.1179779693484306</v>
       </c>
       <c r="AE2">
-        <v>-6.278778553009033</v>
+        <v>-5.332649230957031</v>
       </c>
       <c r="AF2">
-        <v>0.2041453719139099</v>
+        <v>1.134823203086853</v>
       </c>
       <c r="AG2">
-        <v>9.711382865905762</v>
+        <v>10.42860221862793</v>
       </c>
       <c r="AH2">
-        <v>-0.6479786038398743</v>
+        <v>-0.4514963328838348</v>
       </c>
       <c r="AI2">
-        <v>-7.763186931610107</v>
+        <v>-8.616794586181641</v>
       </c>
       <c r="AJ2">
-        <v>-0.2028291374444962</v>
+        <v>0.3023131191730499</v>
       </c>
       <c r="AK2">
-        <v>-3.886720180511475</v>
+        <v>-3.605324983596802</v>
       </c>
       <c r="AL2">
-        <v>-2.537226438522339</v>
+        <v>-2.418140888214111</v>
       </c>
       <c r="AM2">
-        <v>16.92087173461914</v>
+        <v>17.24291038513184</v>
       </c>
       <c r="AN2">
-        <v>2.117859363555908</v>
+        <v>2.051872253417969</v>
       </c>
       <c r="AO2">
-        <v>-1.970232844352722</v>
+        <v>-2.407280921936035</v>
       </c>
       <c r="AP2">
-        <v>-2.482708692550659</v>
+        <v>-2.275574684143066</v>
       </c>
       <c r="AQ2">
-        <v>2.192580938339233</v>
+        <v>2.692673206329346</v>
       </c>
       <c r="AR2">
-        <v>10.84608364105225</v>
+        <v>11.44480228424072</v>
       </c>
       <c r="AS2">
-        <v>-3.67061448097229</v>
+        <v>-3.215967416763306</v>
       </c>
       <c r="AT2">
-        <v>-1.737512350082397</v>
+        <v>-1.224469184875488</v>
       </c>
       <c r="AU2">
-        <v>-0.991934061050415</v>
+        <v>-0.628331184387207</v>
       </c>
       <c r="AV2">
-        <v>-4.874317646026611</v>
+        <v>-4.972119331359863</v>
       </c>
       <c r="AW2">
-        <v>1.71414840221405</v>
+        <v>2.225744962692261</v>
       </c>
       <c r="AX2">
-        <v>1.774172067642212</v>
+        <v>2.136389255523682</v>
       </c>
       <c r="AY2">
-        <v>4.155814647674561</v>
+        <v>4.689376354217529</v>
       </c>
       <c r="AZ2">
-        <v>-14.90762805938721</v>
+        <v>-15.8633337020874</v>
       </c>
       <c r="BA2">
-        <v>-1.71215283870697</v>
+        <v>-1.263673186302185</v>
       </c>
       <c r="BB2">
-        <v>17.02653694152832</v>
+        <v>16.92876625061035</v>
       </c>
       <c r="BC2">
-        <v>-1.779889345169067</v>
+        <v>-1.357080936431885</v>
       </c>
       <c r="BD2">
-        <v>0.03449889644980431</v>
+        <v>-0.1691147089004517</v>
       </c>
       <c r="BE2">
-        <v>0.2513027787208557</v>
+        <v>-0.2954533100128174</v>
       </c>
       <c r="BF2">
-        <v>17.88712692260742</v>
+        <v>17.90740394592285</v>
       </c>
       <c r="BG2">
-        <v>-1.726025581359863</v>
+        <v>-1.805022954940796</v>
       </c>
       <c r="BH2">
-        <v>-1.369078278541565</v>
+        <v>-0.9966408014297485</v>
       </c>
       <c r="BI2">
-        <v>-1.349561095237732</v>
+        <v>-2.219599723815918</v>
       </c>
       <c r="BJ2">
-        <v>5.371184349060059</v>
+        <v>4.470018863677979</v>
       </c>
       <c r="BK2">
-        <v>0.4761289358139038</v>
+        <v>0.3803165256977081</v>
       </c>
       <c r="BL2">
-        <v>-1.886371374130249</v>
+        <v>-1.096102833747864</v>
       </c>
       <c r="BM2">
-        <v>1.634006857872009</v>
+        <v>0.8139843940734863</v>
       </c>
       <c r="BN2">
-        <v>-7.851880073547363</v>
+        <v>-8.939273834228516</v>
       </c>
       <c r="BO2">
-        <v>-4.596156597137451</v>
+        <v>-4.078859806060791</v>
       </c>
       <c r="BP2">
-        <v>11.53144073486328</v>
+        <v>11.58365726470947</v>
       </c>
       <c r="BQ2">
-        <v>-2.22389817237854</v>
+        <v>-2.196168899536133</v>
       </c>
       <c r="BR2">
-        <v>1.244030237197876</v>
+        <v>0.9966269135475159</v>
       </c>
       <c r="BS2">
-        <v>-0.5564528703689575</v>
+        <v>-0.1675257980823517</v>
       </c>
       <c r="BT2">
-        <v>-4.223362922668457</v>
+        <v>-3.955980062484741</v>
       </c>
       <c r="BU2">
-        <v>1.072980165481567</v>
+        <v>0.3304969668388367</v>
       </c>
       <c r="BV2">
-        <v>17.79602432250977</v>
+        <v>16.54923629760742</v>
       </c>
       <c r="BW2">
-        <v>0.8714364767074585</v>
+        <v>0.1527227759361267</v>
       </c>
       <c r="BX2">
-        <v>-1.875680208206177</v>
+        <v>-1.844112396240234</v>
       </c>
       <c r="BY2">
-        <v>1.525821208953857</v>
+        <v>0.7966821789741516</v>
       </c>
       <c r="BZ2">
-        <v>2.083368301391602</v>
+        <v>2.070717811584473</v>
       </c>
       <c r="CA2">
-        <v>4.250486373901367</v>
+        <v>4.383357048034668</v>
       </c>
       <c r="CB2">
-        <v>-6.817742347717285</v>
+        <v>-6.039534091949463</v>
       </c>
       <c r="CC2">
-        <v>0.0344737209379673</v>
+        <v>-0.1193695515394211</v>
       </c>
       <c r="CD2">
-        <v>0.5985406041145325</v>
+        <v>0.8004779815673828</v>
       </c>
       <c r="CE2">
-        <v>-7.497985363006592</v>
+        <v>-7.940427780151367</v>
       </c>
       <c r="CF2">
-        <v>3.546985149383545</v>
+        <v>4.021223545074463</v>
       </c>
       <c r="CG2">
-        <v>-10.11642169952393</v>
+        <v>-10.4637451171875</v>
       </c>
       <c r="CH2">
-        <v>-5.224138736724854</v>
+        <v>-5.941182613372803</v>
       </c>
       <c r="CI2">
-        <v>0.02871044911444187</v>
+        <v>0.4938816428184509</v>
       </c>
       <c r="CJ2">
-        <v>-6.672986030578613</v>
+        <v>-5.725500583648682</v>
       </c>
       <c r="CK2">
-        <v>-0.8024160861968994</v>
+        <v>-1.302790284156799</v>
       </c>
       <c r="CL2">
-        <v>-4.148355484008789</v>
+        <v>-3.772829532623291</v>
       </c>
       <c r="CM2">
-        <v>1.115072727203369</v>
+        <v>0.6030094027519226</v>
       </c>
       <c r="CN2">
-        <v>-0.1327860653400421</v>
+        <v>0.4754553735256195</v>
       </c>
       <c r="CO2">
-        <v>-1.630412459373474</v>
+        <v>-1.135331988334656</v>
       </c>
       <c r="CP2">
-        <v>-1.384437441825867</v>
+        <v>-1.489836454391479</v>
       </c>
       <c r="CQ2">
-        <v>-13.53692436218262</v>
+        <v>-13.10725784301758</v>
       </c>
       <c r="CR2">
-        <v>0.2119556367397308</v>
+        <v>0.2927087545394897</v>
       </c>
       <c r="CS2">
-        <v>0.279021680355072</v>
+        <v>0.3324055075645447</v>
       </c>
       <c r="CT2">
-        <v>0.2112783044576645</v>
+        <v>0.1286044865846634</v>
       </c>
       <c r="CU2">
-        <v>-1.777445673942566</v>
+        <v>-1.188296794891357</v>
       </c>
       <c r="CV2">
-        <v>0.8789957165718079</v>
+        <v>-0.1613486260175705</v>
       </c>
       <c r="CW2">
-        <v>-10.25049591064453</v>
+        <v>-9.956109046936035</v>
       </c>
       <c r="CX2">
-        <v>-1.359413504600525</v>
+        <v>-0.1778577417135239</v>
       </c>
       <c r="CY2">
-        <v>-2.691069364547729</v>
+        <v>-2.338516712188721</v>
       </c>
       <c r="CZ2">
-        <v>-0.4791320264339447</v>
+        <v>-0.1206963434815407</v>
       </c>
       <c r="DA2">
-        <v>9.559276580810547</v>
+        <v>9.31810188293457</v>
       </c>
       <c r="DB2">
-        <v>4.155437469482422</v>
+        <v>4.446906566619873</v>
       </c>
       <c r="DC2">
-        <v>-1.948821067810059</v>
+        <v>-1.254573702812195</v>
       </c>
       <c r="DD2">
-        <v>-7.140111446380615</v>
+        <v>-7.158711433410645</v>
       </c>
       <c r="DE2">
-        <v>1.355371713638306</v>
+        <v>1.580572247505188</v>
       </c>
       <c r="DF2">
-        <v>10.83763122558594</v>
+        <v>11.47824764251709</v>
       </c>
       <c r="DG2">
-        <v>0.3563654720783234</v>
+        <v>-0.4464225769042969</v>
       </c>
       <c r="DH2">
-        <v>-1.018167853355408</v>
+        <v>-0.5883677005767822</v>
       </c>
       <c r="DI2">
-        <v>0.1662564128637314</v>
+        <v>-0.4211678504943848</v>
       </c>
       <c r="DJ2">
-        <v>0.3985998630523682</v>
+        <v>0.1746395528316498</v>
       </c>
       <c r="DK2">
-        <v>-7.110306739807129</v>
+        <v>-8.105634689331055</v>
       </c>
       <c r="DL2">
-        <v>4.060025215148926</v>
+        <v>4.183245182037354</v>
       </c>
       <c r="DM2">
-        <v>-3.50806999206543</v>
+        <v>-3.202006340026855</v>
       </c>
       <c r="DN2">
-        <v>-0.6608995199203491</v>
+        <v>-0.8759427666664124</v>
       </c>
       <c r="DO2">
-        <v>-13.48677921295166</v>
+        <v>-12.73300075531006</v>
       </c>
       <c r="DP2">
-        <v>-4.421633720397949</v>
+        <v>-4.061505794525146</v>
       </c>
       <c r="DQ2">
-        <v>0.4313422441482544</v>
+        <v>0.6511041522026062</v>
       </c>
       <c r="DR2">
-        <v>0.6077786087989807</v>
+        <v>1.538124322891235</v>
       </c>
       <c r="DS2">
-        <v>-4.841727256774902</v>
+        <v>-5.093305587768555</v>
       </c>
       <c r="DT2">
-        <v>-16.40925025939941</v>
+        <v>-17.77226257324219</v>
       </c>
       <c r="DU2">
-        <v>-1.905910968780518</v>
+        <v>-1.67486584186554</v>
       </c>
       <c r="DV2">
-        <v>0.09471508860588074</v>
+        <v>0.01669214852154255</v>
       </c>
       <c r="DW2">
-        <v>0.6577596664428711</v>
+        <v>-0.05031009763479233</v>
       </c>
       <c r="DX2">
-        <v>0.2716026306152344</v>
+        <v>0.3509168028831482</v>
       </c>
       <c r="DY2">
-        <v>-5.69145393371582</v>
+        <v>-4.801197052001953</v>
       </c>
       <c r="DZ2">
-        <v>0.07564840465784073</v>
+        <v>-0.2215285748243332</v>
       </c>
       <c r="EA2">
-        <v>1.310606241226196</v>
+        <v>1.993699312210083</v>
       </c>
       <c r="EB2">
-        <v>-0.1208911016583443</v>
+        <v>0.03221933171153069</v>
       </c>
       <c r="EC2">
-        <v>1.426451563835144</v>
+        <v>2.051845550537109</v>
       </c>
       <c r="ED2">
-        <v>-3.863954544067383</v>
+        <v>-4.717239379882812</v>
       </c>
       <c r="EE2">
-        <v>1.532527804374695</v>
+        <v>1.647820591926575</v>
       </c>
       <c r="EF2">
-        <v>16.05831718444824</v>
+        <v>16.77239608764648</v>
       </c>
       <c r="EG2">
-        <v>-2.155385971069336</v>
+        <v>-1.627999186515808</v>
       </c>
       <c r="EH2">
-        <v>-19.80855941772461</v>
+        <v>-19.92079544067383</v>
       </c>
       <c r="EI2">
-        <v>1.084243416786194</v>
+        <v>1.091286063194275</v>
       </c>
       <c r="EJ2">
-        <v>4.39906644821167</v>
+        <v>4.777127265930176</v>
       </c>
       <c r="EK2">
-        <v>1.761236906051636</v>
+        <v>1.795198202133179</v>
       </c>
       <c r="EL2">
-        <v>0.02758662216365337</v>
+        <v>0.3285780549049377</v>
       </c>
       <c r="EM2">
-        <v>1.201824188232422</v>
+        <v>0.9536665081977844</v>
       </c>
       <c r="EN2">
-        <v>4.019971370697021</v>
+        <v>3.17598819732666</v>
       </c>
       <c r="EO2">
-        <v>-1.692144155502319</v>
+        <v>-2.237311363220215</v>
       </c>
       <c r="EP2">
-        <v>-11.42773246765137</v>
+        <v>-11.38424968719482</v>
       </c>
       <c r="EQ2">
-        <v>7.726810455322266</v>
+        <v>7.88740873336792</v>
       </c>
       <c r="ER2">
-        <v>1.867834568023682</v>
+        <v>1.811774492263794</v>
       </c>
       <c r="ES2">
-        <v>-3.797411680221558</v>
+        <v>-3.771003007888794</v>
       </c>
       <c r="ET2">
-        <v>-3.75157904624939</v>
+        <v>-4.914485454559326</v>
       </c>
       <c r="EU2">
-        <v>5.892817497253418</v>
+        <v>5.584623336791992</v>
       </c>
       <c r="EV2">
-        <v>-10.63676452636719</v>
+        <v>-11.4393482208252</v>
       </c>
       <c r="EW2">
-        <v>2.337226867675781</v>
+        <v>2.414967775344849</v>
       </c>
       <c r="EX2">
-        <v>-6.185803413391113</v>
+        <v>-5.655731678009033</v>
       </c>
       <c r="EY2">
-        <v>-0.9991866946220398</v>
+        <v>-1.826383113861084</v>
       </c>
       <c r="EZ2">
-        <v>0.8805392384529114</v>
+        <v>0.9315608739852905</v>
       </c>
       <c r="FA2">
-        <v>-0.1079966351389885</v>
+        <v>0.5248648524284363</v>
       </c>
       <c r="FB2">
-        <v>-1.202072620391846</v>
+        <v>-0.7744328379631042</v>
       </c>
       <c r="FC2">
-        <v>-9.394997596740723</v>
+        <v>-9.069883346557617</v>
       </c>
       <c r="FD2">
-        <v>1.016698241233826</v>
+        <v>1.267686009407043</v>
       </c>
       <c r="FE2">
-        <v>-0.6306658387184143</v>
+        <v>-0.9474811553955078</v>
       </c>
       <c r="FF2">
-        <v>3.505562543869019</v>
+        <v>3.86462926864624</v>
       </c>
       <c r="FG2">
-        <v>-15.33132457733154</v>
+        <v>-16.1146125793457</v>
       </c>
       <c r="FH2">
-        <v>0.08398744463920593</v>
+        <v>0.6168290376663208</v>
       </c>
       <c r="FI2">
-        <v>2.337628126144409</v>
+        <v>1.909557700157166</v>
       </c>
       <c r="FJ2">
-        <v>-6.121195316314697</v>
+        <v>-6.543030261993408</v>
       </c>
       <c r="FK2">
-        <v>7.236096382141113</v>
+        <v>6.841121196746826</v>
       </c>
       <c r="FL2">
-        <v>-2.113441705703735</v>
+        <v>-1.451982140541077</v>
       </c>
       <c r="FM2">
-        <v>-3.839778661727905</v>
+        <v>-5.084159374237061</v>
       </c>
       <c r="FN2">
-        <v>-8.240930557250977</v>
+        <v>-7.60833215713501</v>
       </c>
       <c r="FO2">
-        <v>-0.1963926404714584</v>
+        <v>-0.6416309475898743</v>
       </c>
       <c r="FP2">
-        <v>-0.1731424927711487</v>
+        <v>-1.453382253646851</v>
       </c>
       <c r="FQ2">
-        <v>1.389070510864258</v>
+        <v>1.849171757698059</v>
       </c>
       <c r="FR2">
-        <v>-0.07635632157325745</v>
+        <v>0.2344593107700348</v>
       </c>
       <c r="FS2">
-        <v>1.461829543113708</v>
+        <v>1.591490626335144</v>
       </c>
       <c r="FT2">
-        <v>-0.5307108759880066</v>
+        <v>0.007868400774896145</v>
       </c>
       <c r="FU2">
-        <v>-3.926857471466064</v>
+        <v>-4.809473991394043</v>
       </c>
       <c r="FV2">
-        <v>0.4950304627418518</v>
+        <v>-0.1006695032119751</v>
       </c>
       <c r="FW2">
-        <v>-2.348592758178711</v>
+        <v>-2.705780744552612</v>
       </c>
       <c r="FX2">
-        <v>2.726003170013428</v>
+        <v>2.641101121902466</v>
       </c>
       <c r="FY2">
-        <v>2.575139045715332</v>
+        <v>2.778731107711792</v>
       </c>
       <c r="FZ2">
-        <v>-1.36119019985199</v>
+        <v>-2.465973854064941</v>
       </c>
       <c r="GA2">
-        <v>0.1792372465133667</v>
+        <v>0.9198987483978271</v>
       </c>
       <c r="GB2">
-        <v>-1.566348075866699</v>
+        <v>-1.077040195465088</v>
       </c>
       <c r="GC2">
-        <v>12.56292533874512</v>
+        <v>12.31487464904785</v>
       </c>
       <c r="GD2">
-        <v>-14.97962188720703</v>
+        <v>-15.09261322021484</v>
       </c>
       <c r="GE2">
-        <v>-1.596099376678467</v>
+        <v>-1.804081678390503</v>
       </c>
       <c r="GF2">
-        <v>-10.10649967193604</v>
+        <v>-10.15983581542969</v>
       </c>
       <c r="GG2">
-        <v>-6.770732402801514</v>
+        <v>-7.889623165130615</v>
       </c>
       <c r="GH2">
-        <v>0.3403124511241913</v>
+        <v>0.8919935822486877</v>
       </c>
       <c r="GI2">
-        <v>1.150794386863708</v>
+        <v>2.242156028747559</v>
       </c>
       <c r="GJ2">
-        <v>0.9264936447143555</v>
+        <v>0.6385235190391541</v>
       </c>
       <c r="GK2">
-        <v>10.85791206359863</v>
+        <v>10.75820541381836</v>
       </c>
       <c r="GL2">
-        <v>1.042912840843201</v>
+        <v>0.4617460966110229</v>
       </c>
       <c r="GM2">
-        <v>-2.866143465042114</v>
+        <v>-2.381744861602783</v>
       </c>
       <c r="GN2">
-        <v>5.183456897735596</v>
+        <v>4.242543697357178</v>
       </c>
       <c r="GO2">
-        <v>-10.02111721038818</v>
+        <v>-10.87452411651611</v>
       </c>
       <c r="GP2">
-        <v>3.127333402633667</v>
+        <v>2.821732997894287</v>
       </c>
       <c r="GQ2">
-        <v>0.8264690637588501</v>
+        <v>1.496333718299866</v>
       </c>
       <c r="GR2">
-        <v>-0.9707849621772766</v>
+        <v>-0.4207998514175415</v>
       </c>
       <c r="GS2">
-        <v>4.107458591461182</v>
+        <v>4.657223701477051</v>
       </c>
       <c r="GT2">
-        <v>-0.7607190608978271</v>
+        <v>0.3235703408718109</v>
       </c>
       <c r="GU2">
-        <v>-5.546043395996094</v>
+        <v>-5.251276969909668</v>
       </c>
       <c r="GV2">
-        <v>-0.02852940559387207</v>
+        <v>-0.6772538423538208</v>
       </c>
       <c r="GW2">
-        <v>-1.979710698127747</v>
+        <v>-0.9045891165733337</v>
       </c>
       <c r="GX2">
-        <v>3.09718132019043</v>
+        <v>2.40051531791687</v>
       </c>
       <c r="GY2">
-        <v>-1.782329797744751</v>
+        <v>-1.943408370018005</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Multi Nationals.xlsx
+++ b/static/Models/Classification/Equation/Multi Nationals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-2.418330192565918</v>
+        <v>-2.0356605052948</v>
       </c>
       <c r="C2">
-        <v>3.042300701141357</v>
+        <v>2.562615633010864</v>
       </c>
       <c r="D2">
-        <v>-9.872481346130371</v>
+        <v>-9.945894241333008</v>
       </c>
       <c r="E2">
-        <v>14.56569385528564</v>
+        <v>13.77506446838379</v>
       </c>
       <c r="F2">
-        <v>-0.6798635721206665</v>
+        <v>-0.672799289226532</v>
       </c>
       <c r="G2">
-        <v>1.655970931053162</v>
+        <v>1.801533579826355</v>
       </c>
       <c r="H2">
-        <v>-0.5453548431396484</v>
+        <v>-0.4619822204113007</v>
       </c>
       <c r="I2">
-        <v>3.571603536605835</v>
+        <v>3.106914281845093</v>
       </c>
       <c r="J2">
-        <v>3.766860008239746</v>
+        <v>3.175925016403198</v>
       </c>
       <c r="K2">
-        <v>0.7487863302230835</v>
+        <v>1.328766584396362</v>
       </c>
       <c r="L2">
-        <v>-0.2663452327251434</v>
+        <v>-0.4774542152881622</v>
       </c>
       <c r="M2">
-        <v>-0.587117075920105</v>
+        <v>0.04167008399963379</v>
       </c>
       <c r="N2">
-        <v>-1.223537087440491</v>
+        <v>-0.7574514150619507</v>
       </c>
       <c r="O2">
-        <v>5.127668857574463</v>
+        <v>4.691619873046875</v>
       </c>
       <c r="P2">
-        <v>5.61162281036377</v>
+        <v>5.330128192901611</v>
       </c>
       <c r="Q2">
-        <v>-3.887664318084717</v>
+        <v>-3.675650119781494</v>
       </c>
       <c r="R2">
-        <v>-1.013395547866821</v>
+        <v>-1.063204765319824</v>
       </c>
       <c r="S2">
-        <v>-16.51910209655762</v>
+        <v>-17.09226417541504</v>
       </c>
       <c r="T2">
-        <v>-0.4442393183708191</v>
+        <v>-0.9214072227478027</v>
       </c>
       <c r="U2">
-        <v>-6.592614650726318</v>
+        <v>-6.25931978225708</v>
       </c>
       <c r="V2">
-        <v>0.6203255653381348</v>
+        <v>-0.009321741759777069</v>
       </c>
       <c r="W2">
-        <v>-3.267914056777954</v>
+        <v>-3.914941310882568</v>
       </c>
       <c r="X2">
-        <v>-0.24834243953228</v>
+        <v>-0.4083278775215149</v>
       </c>
       <c r="Y2">
-        <v>0.04338180646300316</v>
+        <v>-0.6708911061286926</v>
       </c>
       <c r="Z2">
-        <v>0.6979026794433594</v>
+        <v>1.042789816856384</v>
       </c>
       <c r="AA2">
-        <v>1.395874738693237</v>
+        <v>1.283540606498718</v>
       </c>
       <c r="AB2">
-        <v>5.41505765914917</v>
+        <v>5.831992149353027</v>
       </c>
       <c r="AC2">
-        <v>-8.67423152923584</v>
+        <v>-9.40341854095459</v>
       </c>
       <c r="AD2">
-        <v>0.1179779693484306</v>
+        <v>-0.3300439119338989</v>
       </c>
       <c r="AE2">
-        <v>-5.332649230957031</v>
+        <v>-4.991877555847168</v>
       </c>
       <c r="AF2">
-        <v>1.134823203086853</v>
+        <v>1.765861749649048</v>
       </c>
       <c r="AG2">
-        <v>10.42860221862793</v>
+        <v>9.777606964111328</v>
       </c>
       <c r="AH2">
-        <v>-0.4514963328838348</v>
+        <v>-0.9129857420921326</v>
       </c>
       <c r="AI2">
-        <v>-8.616794586181641</v>
+        <v>-8.589539527893066</v>
       </c>
       <c r="AJ2">
-        <v>0.3023131191730499</v>
+        <v>-0.2446829974651337</v>
       </c>
       <c r="AK2">
-        <v>-3.605324983596802</v>
+        <v>-3.56480598449707</v>
       </c>
       <c r="AL2">
-        <v>-2.418140888214111</v>
+        <v>-2.231300592422485</v>
       </c>
       <c r="AM2">
-        <v>17.24291038513184</v>
+        <v>17.31187629699707</v>
       </c>
       <c r="AN2">
-        <v>2.051872253417969</v>
+        <v>2.096002817153931</v>
       </c>
       <c r="AO2">
-        <v>-2.407280921936035</v>
+        <v>-1.963579177856445</v>
       </c>
       <c r="AP2">
-        <v>-2.275574684143066</v>
+        <v>-2.745778799057007</v>
       </c>
       <c r="AQ2">
-        <v>2.692673206329346</v>
+        <v>2.682371854782104</v>
       </c>
       <c r="AR2">
-        <v>11.44480228424072</v>
+        <v>11.87881183624268</v>
       </c>
       <c r="AS2">
-        <v>-3.215967416763306</v>
+        <v>-3.642095804214478</v>
       </c>
       <c r="AT2">
-        <v>-1.224469184875488</v>
+        <v>-0.954833984375</v>
       </c>
       <c r="AU2">
-        <v>-0.628331184387207</v>
+        <v>-0.05321985110640526</v>
       </c>
       <c r="AV2">
-        <v>-4.972119331359863</v>
+        <v>-5.541533470153809</v>
       </c>
       <c r="AW2">
-        <v>2.225744962692261</v>
+        <v>2.750046730041504</v>
       </c>
       <c r="AX2">
-        <v>2.136389255523682</v>
+        <v>2.637236833572388</v>
       </c>
       <c r="AY2">
-        <v>4.689376354217529</v>
+        <v>4.155688285827637</v>
       </c>
       <c r="AZ2">
-        <v>-15.8633337020874</v>
+        <v>-15.59776878356934</v>
       </c>
       <c r="BA2">
-        <v>-1.263673186302185</v>
+        <v>-1.387482285499573</v>
       </c>
       <c r="BB2">
-        <v>16.92876625061035</v>
+        <v>17.32809448242188</v>
       </c>
       <c r="BC2">
-        <v>-1.357080936431885</v>
+        <v>-1.705459594726562</v>
       </c>
       <c r="BD2">
-        <v>-0.1691147089004517</v>
+        <v>-0.6165751218795776</v>
       </c>
       <c r="BE2">
-        <v>-0.2954533100128174</v>
+        <v>-0.1384865790605545</v>
       </c>
       <c r="BF2">
-        <v>17.90740394592285</v>
+        <v>18.33196067810059</v>
       </c>
       <c r="BG2">
-        <v>-1.805022954940796</v>
+        <v>-2.234330415725708</v>
       </c>
       <c r="BH2">
-        <v>-0.9966408014297485</v>
+        <v>-0.6553775668144226</v>
       </c>
       <c r="BI2">
-        <v>-2.219599723815918</v>
+        <v>-2.735332250595093</v>
       </c>
       <c r="BJ2">
-        <v>4.470018863677979</v>
+        <v>4.975499629974365</v>
       </c>
       <c r="BK2">
-        <v>0.3803165256977081</v>
+        <v>-0.4052005112171173</v>
       </c>
       <c r="BL2">
-        <v>-1.096102833747864</v>
+        <v>-0.8067998886108398</v>
       </c>
       <c r="BM2">
-        <v>0.8139843940734863</v>
+        <v>0.6823539137840271</v>
       </c>
       <c r="BN2">
-        <v>-8.939273834228516</v>
+        <v>-8.378276824951172</v>
       </c>
       <c r="BO2">
-        <v>-4.078859806060791</v>
+        <v>-4.440822124481201</v>
       </c>
       <c r="BP2">
-        <v>11.58365726470947</v>
+        <v>10.90366458892822</v>
       </c>
       <c r="BQ2">
-        <v>-2.196168899536133</v>
+        <v>-2.561293840408325</v>
       </c>
       <c r="BR2">
-        <v>0.9966269135475159</v>
+        <v>1.096105217933655</v>
       </c>
       <c r="BS2">
-        <v>-0.1675257980823517</v>
+        <v>0.2838118672370911</v>
       </c>
       <c r="BT2">
-        <v>-3.955980062484741</v>
+        <v>-3.896912097930908</v>
       </c>
       <c r="BU2">
-        <v>0.3304969668388367</v>
+        <v>-0.1174190640449524</v>
       </c>
       <c r="BV2">
-        <v>16.54923629760742</v>
+        <v>16.73359298706055</v>
       </c>
       <c r="BW2">
-        <v>0.1527227759361267</v>
+        <v>-0.3711444139480591</v>
       </c>
       <c r="BX2">
-        <v>-1.844112396240234</v>
+        <v>-2.418535709381104</v>
       </c>
       <c r="BY2">
-        <v>0.7966821789741516</v>
+        <v>1.460931420326233</v>
       </c>
       <c r="BZ2">
-        <v>2.070717811584473</v>
+        <v>1.510649919509888</v>
       </c>
       <c r="CA2">
-        <v>4.383357048034668</v>
+        <v>4.97264289855957</v>
       </c>
       <c r="CB2">
-        <v>-6.039534091949463</v>
+        <v>-5.987564563751221</v>
       </c>
       <c r="CC2">
-        <v>-0.1193695515394211</v>
+        <v>-0.5935758352279663</v>
       </c>
       <c r="CD2">
-        <v>0.8004779815673828</v>
+        <v>0.3596331775188446</v>
       </c>
       <c r="CE2">
-        <v>-7.940427780151367</v>
+        <v>-8.409612655639648</v>
       </c>
       <c r="CF2">
-        <v>4.021223545074463</v>
+        <v>3.794285535812378</v>
       </c>
       <c r="CG2">
-        <v>-10.4637451171875</v>
+        <v>-9.814862251281738</v>
       </c>
       <c r="CH2">
-        <v>-5.941182613372803</v>
+        <v>-6.083620548248291</v>
       </c>
       <c r="CI2">
-        <v>0.4938816428184509</v>
+        <v>0.04246840626001358</v>
       </c>
       <c r="CJ2">
-        <v>-5.725500583648682</v>
+        <v>-5.626956939697266</v>
       </c>
       <c r="CK2">
-        <v>-1.302790284156799</v>
+        <v>-1.661654472351074</v>
       </c>
       <c r="CL2">
-        <v>-3.772829532623291</v>
+        <v>-4.208942413330078</v>
       </c>
       <c r="CM2">
-        <v>0.6030094027519226</v>
+        <v>1.065989136695862</v>
       </c>
       <c r="CN2">
-        <v>0.4754553735256195</v>
+        <v>-0.03731098398566246</v>
       </c>
       <c r="CO2">
-        <v>-1.135331988334656</v>
+        <v>-1.59188449382782</v>
       </c>
       <c r="CP2">
-        <v>-1.489836454391479</v>
+        <v>-0.8858613967895508</v>
       </c>
       <c r="CQ2">
-        <v>-13.10725784301758</v>
+        <v>-13.28314685821533</v>
       </c>
       <c r="CR2">
-        <v>0.2927087545394897</v>
+        <v>0.7970152497291565</v>
       </c>
       <c r="CS2">
-        <v>0.3324055075645447</v>
+        <v>-0.1194476559758186</v>
       </c>
       <c r="CT2">
-        <v>0.1286044865846634</v>
+        <v>-0.3427051901817322</v>
       </c>
       <c r="CU2">
-        <v>-1.188296794891357</v>
+        <v>-0.8749667406082153</v>
       </c>
       <c r="CV2">
-        <v>-0.1613486260175705</v>
+        <v>-0.7519500851631165</v>
       </c>
       <c r="CW2">
-        <v>-9.956109046936035</v>
+        <v>-10.46492671966553</v>
       </c>
       <c r="CX2">
-        <v>-0.1778577417135239</v>
+        <v>-0.4570694863796234</v>
       </c>
       <c r="CY2">
-        <v>-2.338516712188721</v>
+        <v>-1.792725324630737</v>
       </c>
       <c r="CZ2">
-        <v>-0.1206963434815407</v>
+        <v>-0.3323608934879303</v>
       </c>
       <c r="DA2">
-        <v>9.31810188293457</v>
+        <v>8.631694793701172</v>
       </c>
       <c r="DB2">
-        <v>4.446906566619873</v>
+        <v>4.836250305175781</v>
       </c>
       <c r="DC2">
-        <v>-1.254573702812195</v>
+        <v>-1.87052845954895</v>
       </c>
       <c r="DD2">
-        <v>-7.158711433410645</v>
+        <v>-7.67694091796875</v>
       </c>
       <c r="DE2">
-        <v>1.580572247505188</v>
+        <v>1.127777457237244</v>
       </c>
       <c r="DF2">
-        <v>11.47824764251709</v>
+        <v>11.56424999237061</v>
       </c>
       <c r="DG2">
-        <v>-0.4464225769042969</v>
+        <v>-0.5206702947616577</v>
       </c>
       <c r="DH2">
-        <v>-0.5883677005767822</v>
+        <v>-0.8626956939697266</v>
       </c>
       <c r="DI2">
-        <v>-0.4211678504943848</v>
+        <v>0.1995797604322433</v>
       </c>
       <c r="DJ2">
-        <v>0.1746395528316498</v>
+        <v>-0.1159892454743385</v>
       </c>
       <c r="DK2">
-        <v>-8.105634689331055</v>
+        <v>-7.789553165435791</v>
       </c>
       <c r="DL2">
-        <v>4.183245182037354</v>
+        <v>4.395596981048584</v>
       </c>
       <c r="DM2">
-        <v>-3.202006340026855</v>
+        <v>-2.817741394042969</v>
       </c>
       <c r="DN2">
-        <v>-0.8759427666664124</v>
+        <v>-1.313707947731018</v>
       </c>
       <c r="DO2">
-        <v>-12.73300075531006</v>
+        <v>-12.81664943695068</v>
       </c>
       <c r="DP2">
-        <v>-4.061505794525146</v>
+        <v>-3.66858172416687</v>
       </c>
       <c r="DQ2">
-        <v>0.6511041522026062</v>
+        <v>0.1501214802265167</v>
       </c>
       <c r="DR2">
-        <v>1.538124322891235</v>
+        <v>1.28429901599884</v>
       </c>
       <c r="DS2">
-        <v>-5.093305587768555</v>
+        <v>-4.865357875823975</v>
       </c>
       <c r="DT2">
-        <v>-17.77226257324219</v>
+        <v>-17.20414543151855</v>
       </c>
       <c r="DU2">
-        <v>-1.67486584186554</v>
+        <v>-1.11130154132843</v>
       </c>
       <c r="DV2">
-        <v>0.01669214852154255</v>
+        <v>0.55853670835495</v>
       </c>
       <c r="DW2">
-        <v>-0.05031009763479233</v>
+        <v>0.08183509856462479</v>
       </c>
       <c r="DX2">
-        <v>0.3509168028831482</v>
+        <v>-0.101558044552803</v>
       </c>
       <c r="DY2">
-        <v>-4.801197052001953</v>
+        <v>-4.423300266265869</v>
       </c>
       <c r="DZ2">
-        <v>-0.2215285748243332</v>
+        <v>0.2276119887828827</v>
       </c>
       <c r="EA2">
-        <v>1.993699312210083</v>
+        <v>2.46000599861145</v>
       </c>
       <c r="EB2">
-        <v>0.03221933171153069</v>
+        <v>-0.4244852960109711</v>
       </c>
       <c r="EC2">
-        <v>2.051845550537109</v>
+        <v>1.542982339859009</v>
       </c>
       <c r="ED2">
-        <v>-4.717239379882812</v>
+        <v>-5.197146415710449</v>
       </c>
       <c r="EE2">
-        <v>1.647820591926575</v>
+        <v>1.192258715629578</v>
       </c>
       <c r="EF2">
-        <v>16.77239608764648</v>
+        <v>16.77410888671875</v>
       </c>
       <c r="EG2">
-        <v>-1.627999186515808</v>
+        <v>-1.672591328620911</v>
       </c>
       <c r="EH2">
-        <v>-19.92079544067383</v>
+        <v>-19.83590507507324</v>
       </c>
       <c r="EI2">
-        <v>1.091286063194275</v>
+        <v>0.5899147391319275</v>
       </c>
       <c r="EJ2">
-        <v>4.777127265930176</v>
+        <v>4.710464477539062</v>
       </c>
       <c r="EK2">
-        <v>1.795198202133179</v>
+        <v>1.30350661277771</v>
       </c>
       <c r="EL2">
-        <v>0.3285780549049377</v>
+        <v>-0.1174902468919754</v>
       </c>
       <c r="EM2">
-        <v>0.9536665081977844</v>
+        <v>0.2206645160913467</v>
       </c>
       <c r="EN2">
-        <v>3.17598819732666</v>
+        <v>3.352080821990967</v>
       </c>
       <c r="EO2">
-        <v>-2.237311363220215</v>
+        <v>-1.750676274299622</v>
       </c>
       <c r="EP2">
-        <v>-11.38424968719482</v>
+        <v>-10.88498878479004</v>
       </c>
       <c r="EQ2">
-        <v>7.88740873336792</v>
+        <v>7.351322174072266</v>
       </c>
       <c r="ER2">
-        <v>1.811774492263794</v>
+        <v>1.89817214012146</v>
       </c>
       <c r="ES2">
-        <v>-3.771003007888794</v>
+        <v>-4.193430423736572</v>
       </c>
       <c r="ET2">
-        <v>-4.914485454559326</v>
+        <v>-5.248909473419189</v>
       </c>
       <c r="EU2">
-        <v>5.584623336791992</v>
+        <v>5.91083288192749</v>
       </c>
       <c r="EV2">
-        <v>-11.4393482208252</v>
+        <v>-11.04028415679932</v>
       </c>
       <c r="EW2">
-        <v>2.414967775344849</v>
+        <v>2.115854740142822</v>
       </c>
       <c r="EX2">
-        <v>-5.655731678009033</v>
+        <v>-6.273721218109131</v>
       </c>
       <c r="EY2">
-        <v>-1.826383113861084</v>
+        <v>-2.297989845275879</v>
       </c>
       <c r="EZ2">
-        <v>0.9315608739852905</v>
+        <v>0.7237551808357239</v>
       </c>
       <c r="FA2">
-        <v>0.5248648524284363</v>
+        <v>-0.2370355874300003</v>
       </c>
       <c r="FB2">
-        <v>-0.7744328379631042</v>
+        <v>-1.261837601661682</v>
       </c>
       <c r="FC2">
-        <v>-9.069883346557617</v>
+        <v>-9.371578216552734</v>
       </c>
       <c r="FD2">
-        <v>1.267686009407043</v>
+        <v>1.053981184959412</v>
       </c>
       <c r="FE2">
-        <v>-0.9474811553955078</v>
+        <v>-1.075847625732422</v>
       </c>
       <c r="FF2">
-        <v>3.86462926864624</v>
+        <v>3.914737224578857</v>
       </c>
       <c r="FG2">
-        <v>-16.1146125793457</v>
+        <v>-16.285888671875</v>
       </c>
       <c r="FH2">
-        <v>0.6168290376663208</v>
+        <v>0.2257792055606842</v>
       </c>
       <c r="FI2">
-        <v>1.909557700157166</v>
+        <v>2.469624996185303</v>
       </c>
       <c r="FJ2">
-        <v>-6.543030261993408</v>
+        <v>-7.041875839233398</v>
       </c>
       <c r="FK2">
-        <v>6.841121196746826</v>
+        <v>7.458334445953369</v>
       </c>
       <c r="FL2">
-        <v>-1.451982140541077</v>
+        <v>-1.096788644790649</v>
       </c>
       <c r="FM2">
-        <v>-5.084159374237061</v>
+        <v>-5.334381103515625</v>
       </c>
       <c r="FN2">
-        <v>-7.60833215713501</v>
+        <v>-7.203041076660156</v>
       </c>
       <c r="FO2">
-        <v>-0.6416309475898743</v>
+        <v>-0.02096450328826904</v>
       </c>
       <c r="FP2">
-        <v>-1.453382253646851</v>
+        <v>-0.9269589781761169</v>
       </c>
       <c r="FQ2">
-        <v>1.849171757698059</v>
+        <v>1.397568702697754</v>
       </c>
       <c r="FR2">
-        <v>0.2344593107700348</v>
+        <v>-0.2626881003379822</v>
       </c>
       <c r="FS2">
-        <v>1.591490626335144</v>
+        <v>1.13216495513916</v>
       </c>
       <c r="FT2">
-        <v>0.007868400774896145</v>
+        <v>-0.4301849901676178</v>
       </c>
       <c r="FU2">
-        <v>-4.809473991394043</v>
+        <v>-5.28759765625</v>
       </c>
       <c r="FV2">
-        <v>-0.1006695032119751</v>
+        <v>-0.5268974900245667</v>
       </c>
       <c r="FW2">
-        <v>-2.705780744552612</v>
+        <v>-3.262612581253052</v>
       </c>
       <c r="FX2">
-        <v>2.641101121902466</v>
+        <v>1.972151279449463</v>
       </c>
       <c r="FY2">
-        <v>2.778731107711792</v>
+        <v>2.546813011169434</v>
       </c>
       <c r="FZ2">
-        <v>-2.465973854064941</v>
+        <v>-2.324575662612915</v>
       </c>
       <c r="GA2">
-        <v>0.9198987483978271</v>
+        <v>0.3748529553413391</v>
       </c>
       <c r="GB2">
-        <v>-1.077040195465088</v>
+        <v>-1.612391710281372</v>
       </c>
       <c r="GC2">
-        <v>12.31487464904785</v>
+        <v>11.78730010986328</v>
       </c>
       <c r="GD2">
-        <v>-15.09261322021484</v>
+        <v>-15.51279926300049</v>
       </c>
       <c r="GE2">
-        <v>-1.804081678390503</v>
+        <v>-2.242246150970459</v>
       </c>
       <c r="GF2">
-        <v>-10.15983581542969</v>
+        <v>-9.910299301147461</v>
       </c>
       <c r="GG2">
-        <v>-7.889623165130615</v>
+        <v>-7.680975437164307</v>
       </c>
       <c r="GH2">
-        <v>0.8919935822486877</v>
+        <v>0.4250958561897278</v>
       </c>
       <c r="GI2">
-        <v>2.242156028747559</v>
+        <v>2.645926713943481</v>
       </c>
       <c r="GJ2">
-        <v>0.6385235190391541</v>
+        <v>0.06257516145706177</v>
       </c>
       <c r="GK2">
-        <v>10.75820541381836</v>
+        <v>10.29869651794434</v>
       </c>
       <c r="GL2">
-        <v>0.4617460966110229</v>
+        <v>-0.3293174803256989</v>
       </c>
       <c r="GM2">
-        <v>-2.381744861602783</v>
+        <v>-2.308962345123291</v>
       </c>
       <c r="GN2">
-        <v>4.242543697357178</v>
+        <v>4.540379524230957</v>
       </c>
       <c r="GO2">
-        <v>-10.87452411651611</v>
+        <v>-10.77673053741455</v>
       </c>
       <c r="GP2">
-        <v>2.821732997894287</v>
+        <v>2.370443820953369</v>
       </c>
       <c r="GQ2">
-        <v>1.496333718299866</v>
+        <v>0.9898433089256287</v>
       </c>
       <c r="GR2">
-        <v>-0.4207998514175415</v>
+        <v>-0.1179660484194756</v>
       </c>
       <c r="GS2">
-        <v>4.657223701477051</v>
+        <v>5.183690071105957</v>
       </c>
       <c r="GT2">
-        <v>0.3235703408718109</v>
+        <v>0.6768523454666138</v>
       </c>
       <c r="GU2">
-        <v>-5.251276969909668</v>
+        <v>-4.76347541809082</v>
       </c>
       <c r="GV2">
-        <v>-0.6772538423538208</v>
+        <v>-0.5287930369377136</v>
       </c>
       <c r="GW2">
-        <v>-0.9045891165733337</v>
+        <v>-0.5359354615211487</v>
       </c>
       <c r="GX2">
-        <v>2.40051531791687</v>
+        <v>1.872637152671814</v>
       </c>
       <c r="GY2">
-        <v>-1.943408370018005</v>
+        <v>-2.379616975784302</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Multi Nationals.xlsx
+++ b/static/Models/Classification/Equation/Multi Nationals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-2.0356605052948</v>
+        <v>-2.281821966171265</v>
       </c>
       <c r="C2">
-        <v>2.562615633010864</v>
+        <v>1.487333655357361</v>
       </c>
       <c r="D2">
-        <v>-9.945894241333008</v>
+        <v>-8.930054664611816</v>
       </c>
       <c r="E2">
-        <v>13.77506446838379</v>
+        <v>13.80672645568848</v>
       </c>
       <c r="F2">
-        <v>-0.672799289226532</v>
+        <v>1.424836158752441</v>
       </c>
       <c r="G2">
-        <v>1.801533579826355</v>
+        <v>1.864327788352966</v>
       </c>
       <c r="H2">
-        <v>-0.4619822204113007</v>
+        <v>-0.6800419688224792</v>
       </c>
       <c r="I2">
-        <v>3.106914281845093</v>
+        <v>3.225298166275024</v>
       </c>
       <c r="J2">
-        <v>3.175925016403198</v>
+        <v>3.606149196624756</v>
       </c>
       <c r="K2">
-        <v>1.328766584396362</v>
+        <v>0.2893724739551544</v>
       </c>
       <c r="L2">
-        <v>-0.4774542152881622</v>
+        <v>0.6966637372970581</v>
       </c>
       <c r="M2">
-        <v>0.04167008399963379</v>
+        <v>-0.00906917080283165</v>
       </c>
       <c r="N2">
-        <v>-0.7574514150619507</v>
+        <v>0.3469139635562897</v>
       </c>
       <c r="O2">
-        <v>4.691619873046875</v>
+        <v>4.955544471740723</v>
       </c>
       <c r="P2">
-        <v>5.330128192901611</v>
+        <v>6.709129333496094</v>
       </c>
       <c r="Q2">
-        <v>-3.675650119781494</v>
+        <v>-4.380627632141113</v>
       </c>
       <c r="R2">
-        <v>-1.063204765319824</v>
+        <v>-0.6427647471427917</v>
       </c>
       <c r="S2">
-        <v>-17.09226417541504</v>
+        <v>-18.19237327575684</v>
       </c>
       <c r="T2">
-        <v>-0.9214072227478027</v>
+        <v>-0.232225701212883</v>
       </c>
       <c r="U2">
-        <v>-6.25931978225708</v>
+        <v>-5.667163848876953</v>
       </c>
       <c r="V2">
-        <v>-0.009321741759777069</v>
+        <v>1.287558197975159</v>
       </c>
       <c r="W2">
-        <v>-3.914941310882568</v>
+        <v>-3.647378444671631</v>
       </c>
       <c r="X2">
-        <v>-0.4083278775215149</v>
+        <v>-0.5503625273704529</v>
       </c>
       <c r="Y2">
-        <v>-0.6708911061286926</v>
+        <v>-1.923059344291687</v>
       </c>
       <c r="Z2">
-        <v>1.042789816856384</v>
+        <v>0.8712073564529419</v>
       </c>
       <c r="AA2">
-        <v>1.283540606498718</v>
+        <v>1.589646220207214</v>
       </c>
       <c r="AB2">
-        <v>5.831992149353027</v>
+        <v>5.997173309326172</v>
       </c>
       <c r="AC2">
-        <v>-9.40341854095459</v>
+        <v>-8.673066139221191</v>
       </c>
       <c r="AD2">
-        <v>-0.3300439119338989</v>
+        <v>0.08170156180858612</v>
       </c>
       <c r="AE2">
-        <v>-4.991877555847168</v>
+        <v>-4.485317230224609</v>
       </c>
       <c r="AF2">
-        <v>1.765861749649048</v>
+        <v>0.8870713114738464</v>
       </c>
       <c r="AG2">
-        <v>9.777606964111328</v>
+        <v>9.826300621032715</v>
       </c>
       <c r="AH2">
-        <v>-0.9129857420921326</v>
+        <v>-1.483391404151917</v>
       </c>
       <c r="AI2">
-        <v>-8.589539527893066</v>
+        <v>-9.438115119934082</v>
       </c>
       <c r="AJ2">
-        <v>-0.2446829974651337</v>
+        <v>0.04381288215517998</v>
       </c>
       <c r="AK2">
-        <v>-3.56480598449707</v>
+        <v>-3.617853879928589</v>
       </c>
       <c r="AL2">
-        <v>-2.231300592422485</v>
+        <v>-1.118371248245239</v>
       </c>
       <c r="AM2">
-        <v>17.31187629699707</v>
+        <v>17.70911407470703</v>
       </c>
       <c r="AN2">
-        <v>2.096002817153931</v>
+        <v>2.49488377571106</v>
       </c>
       <c r="AO2">
-        <v>-1.963579177856445</v>
+        <v>-3.133633136749268</v>
       </c>
       <c r="AP2">
-        <v>-2.745778799057007</v>
+        <v>-2.261384963989258</v>
       </c>
       <c r="AQ2">
-        <v>2.682371854782104</v>
+        <v>2.28709864616394</v>
       </c>
       <c r="AR2">
-        <v>11.87881183624268</v>
+        <v>11.61310195922852</v>
       </c>
       <c r="AS2">
-        <v>-3.642095804214478</v>
+        <v>-2.375097036361694</v>
       </c>
       <c r="AT2">
-        <v>-0.954833984375</v>
+        <v>-1.558860659599304</v>
       </c>
       <c r="AU2">
-        <v>-0.05321985110640526</v>
+        <v>0.2572795748710632</v>
       </c>
       <c r="AV2">
-        <v>-5.541533470153809</v>
+        <v>-6.228849411010742</v>
       </c>
       <c r="AW2">
-        <v>2.750046730041504</v>
+        <v>1.919201254844666</v>
       </c>
       <c r="AX2">
-        <v>2.637236833572388</v>
+        <v>2.342016458511353</v>
       </c>
       <c r="AY2">
-        <v>4.155688285827637</v>
+        <v>4.322159767150879</v>
       </c>
       <c r="AZ2">
-        <v>-15.59776878356934</v>
+        <v>-15.85434627532959</v>
       </c>
       <c r="BA2">
-        <v>-1.387482285499573</v>
+        <v>-1.379714488983154</v>
       </c>
       <c r="BB2">
-        <v>17.32809448242188</v>
+        <v>16.08337593078613</v>
       </c>
       <c r="BC2">
-        <v>-1.705459594726562</v>
+        <v>-1.134117126464844</v>
       </c>
       <c r="BD2">
-        <v>-0.6165751218795776</v>
+        <v>-0.1729839146137238</v>
       </c>
       <c r="BE2">
-        <v>-0.1384865790605545</v>
+        <v>-0.442599356174469</v>
       </c>
       <c r="BF2">
-        <v>18.33196067810059</v>
+        <v>17.21775436401367</v>
       </c>
       <c r="BG2">
-        <v>-2.234330415725708</v>
+        <v>-1.623503804206848</v>
       </c>
       <c r="BH2">
-        <v>-0.6553775668144226</v>
+        <v>-1.31648325920105</v>
       </c>
       <c r="BI2">
-        <v>-2.735332250595093</v>
+        <v>-2.219808101654053</v>
       </c>
       <c r="BJ2">
-        <v>4.975499629974365</v>
+        <v>5.534070491790771</v>
       </c>
       <c r="BK2">
-        <v>-0.4052005112171173</v>
+        <v>-1.208676099777222</v>
       </c>
       <c r="BL2">
-        <v>-0.8067998886108398</v>
+        <v>-0.9296187162399292</v>
       </c>
       <c r="BM2">
-        <v>0.6823539137840271</v>
+        <v>1.84930694103241</v>
       </c>
       <c r="BN2">
-        <v>-8.378276824951172</v>
+        <v>-7.3336181640625</v>
       </c>
       <c r="BO2">
-        <v>-4.440822124481201</v>
+        <v>-3.668638467788696</v>
       </c>
       <c r="BP2">
-        <v>10.90366458892822</v>
+        <v>12.60898685455322</v>
       </c>
       <c r="BQ2">
-        <v>-2.561293840408325</v>
+        <v>-2.980540037155151</v>
       </c>
       <c r="BR2">
-        <v>1.096105217933655</v>
+        <v>2.406608104705811</v>
       </c>
       <c r="BS2">
-        <v>0.2838118672370911</v>
+        <v>-0.9834743142127991</v>
       </c>
       <c r="BT2">
-        <v>-3.896912097930908</v>
+        <v>-3.747506141662598</v>
       </c>
       <c r="BU2">
-        <v>-0.1174190640449524</v>
+        <v>0.9148560762405396</v>
       </c>
       <c r="BV2">
-        <v>16.73359298706055</v>
+        <v>17.14081382751465</v>
       </c>
       <c r="BW2">
-        <v>-0.3711444139480591</v>
+        <v>-0.9835968017578125</v>
       </c>
       <c r="BX2">
-        <v>-2.418535709381104</v>
+        <v>-2.342022657394409</v>
       </c>
       <c r="BY2">
-        <v>1.460931420326233</v>
+        <v>1.644635677337646</v>
       </c>
       <c r="BZ2">
-        <v>1.510649919509888</v>
+        <v>2.167652606964111</v>
       </c>
       <c r="CA2">
-        <v>4.97264289855957</v>
+        <v>4.502454280853271</v>
       </c>
       <c r="CB2">
-        <v>-5.987564563751221</v>
+        <v>-6.092010021209717</v>
       </c>
       <c r="CC2">
-        <v>-0.5935758352279663</v>
+        <v>-0.07869180291891098</v>
       </c>
       <c r="CD2">
-        <v>0.3596331775188446</v>
+        <v>-1.136343955993652</v>
       </c>
       <c r="CE2">
-        <v>-8.409612655639648</v>
+        <v>-9.710330963134766</v>
       </c>
       <c r="CF2">
-        <v>3.794285535812378</v>
+        <v>3.764405012130737</v>
       </c>
       <c r="CG2">
-        <v>-9.814862251281738</v>
+        <v>-9.215888023376465</v>
       </c>
       <c r="CH2">
-        <v>-6.083620548248291</v>
+        <v>-6.094828128814697</v>
       </c>
       <c r="CI2">
-        <v>0.04246840626001358</v>
+        <v>0.5414264798164368</v>
       </c>
       <c r="CJ2">
-        <v>-5.626956939697266</v>
+        <v>-5.032779216766357</v>
       </c>
       <c r="CK2">
-        <v>-1.661654472351074</v>
+        <v>-0.38999143242836</v>
       </c>
       <c r="CL2">
-        <v>-4.208942413330078</v>
+        <v>-4.202747344970703</v>
       </c>
       <c r="CM2">
-        <v>1.065989136695862</v>
+        <v>1.369178771972656</v>
       </c>
       <c r="CN2">
-        <v>-0.03731098398566246</v>
+        <v>-0.03000552766025066</v>
       </c>
       <c r="CO2">
-        <v>-1.59188449382782</v>
+        <v>-1.472155213356018</v>
       </c>
       <c r="CP2">
-        <v>-0.8858613967895508</v>
+        <v>-0.6088529825210571</v>
       </c>
       <c r="CQ2">
-        <v>-13.28314685821533</v>
+        <v>-13.67588043212891</v>
       </c>
       <c r="CR2">
-        <v>0.7970152497291565</v>
+        <v>-0.6240963935852051</v>
       </c>
       <c r="CS2">
-        <v>-0.1194476559758186</v>
+        <v>0.4647291004657745</v>
       </c>
       <c r="CT2">
-        <v>-0.3427051901817322</v>
+        <v>0.1581593751907349</v>
       </c>
       <c r="CU2">
-        <v>-0.8749667406082153</v>
+        <v>-1.239364981651306</v>
       </c>
       <c r="CV2">
-        <v>-0.7519500851631165</v>
+        <v>0.09533078223466873</v>
       </c>
       <c r="CW2">
-        <v>-10.46492671966553</v>
+        <v>-10.53353786468506</v>
       </c>
       <c r="CX2">
-        <v>-0.4570694863796234</v>
+        <v>-1.261457085609436</v>
       </c>
       <c r="CY2">
-        <v>-1.792725324630737</v>
+        <v>-2.459769487380981</v>
       </c>
       <c r="CZ2">
-        <v>-0.3323608934879303</v>
+        <v>0.04856002703309059</v>
       </c>
       <c r="DA2">
-        <v>8.631694793701172</v>
+        <v>9.253391265869141</v>
       </c>
       <c r="DB2">
-        <v>4.836250305175781</v>
+        <v>5.587193012237549</v>
       </c>
       <c r="DC2">
-        <v>-1.87052845954895</v>
+        <v>-2.921869516372681</v>
       </c>
       <c r="DD2">
-        <v>-7.67694091796875</v>
+        <v>-8.449114799499512</v>
       </c>
       <c r="DE2">
-        <v>1.127777457237244</v>
+        <v>1.785822629928589</v>
       </c>
       <c r="DF2">
-        <v>11.56424999237061</v>
+        <v>11.26282978057861</v>
       </c>
       <c r="DG2">
-        <v>-0.5206702947616577</v>
+        <v>0.3123087286949158</v>
       </c>
       <c r="DH2">
-        <v>-0.8626956939697266</v>
+        <v>-0.9951798319816589</v>
       </c>
       <c r="DI2">
-        <v>0.1995797604322433</v>
+        <v>1.48700737953186</v>
       </c>
       <c r="DJ2">
-        <v>-0.1159892454743385</v>
+        <v>0.5609987378120422</v>
       </c>
       <c r="DK2">
-        <v>-7.789553165435791</v>
+        <v>-6.815304279327393</v>
       </c>
       <c r="DL2">
-        <v>4.395596981048584</v>
+        <v>5.227362632751465</v>
       </c>
       <c r="DM2">
-        <v>-2.817741394042969</v>
+        <v>-2.223834991455078</v>
       </c>
       <c r="DN2">
-        <v>-1.313707947731018</v>
+        <v>-0.6937147378921509</v>
       </c>
       <c r="DO2">
-        <v>-12.81664943695068</v>
+        <v>-12.35621929168701</v>
       </c>
       <c r="DP2">
-        <v>-3.66858172416687</v>
+        <v>-3.813060522079468</v>
       </c>
       <c r="DQ2">
-        <v>0.1501214802265167</v>
+        <v>0.694422721862793</v>
       </c>
       <c r="DR2">
-        <v>1.28429901599884</v>
+        <v>1.073834419250488</v>
       </c>
       <c r="DS2">
-        <v>-4.865357875823975</v>
+        <v>-5.725878238677979</v>
       </c>
       <c r="DT2">
-        <v>-17.20414543151855</v>
+        <v>-16.48616409301758</v>
       </c>
       <c r="DU2">
-        <v>-1.11130154132843</v>
+        <v>-0.7290990352630615</v>
       </c>
       <c r="DV2">
-        <v>0.55853670835495</v>
+        <v>-0.5979158282279968</v>
       </c>
       <c r="DW2">
-        <v>0.08183509856462479</v>
+        <v>1.605869770050049</v>
       </c>
       <c r="DX2">
-        <v>-0.101558044552803</v>
+        <v>0.5310377478599548</v>
       </c>
       <c r="DY2">
-        <v>-4.423300266265869</v>
+        <v>-3.031851053237915</v>
       </c>
       <c r="DZ2">
-        <v>0.2276119887828827</v>
+        <v>-0.8269838690757751</v>
       </c>
       <c r="EA2">
-        <v>2.46000599861145</v>
+        <v>2.964213371276855</v>
       </c>
       <c r="EB2">
-        <v>-0.4244852960109711</v>
+        <v>0.1481169462203979</v>
       </c>
       <c r="EC2">
-        <v>1.542982339859009</v>
+        <v>2.380660533905029</v>
       </c>
       <c r="ED2">
-        <v>-5.197146415710449</v>
+        <v>-4.505230903625488</v>
       </c>
       <c r="EE2">
-        <v>1.192258715629578</v>
+        <v>1.159304261207581</v>
       </c>
       <c r="EF2">
-        <v>16.77410888671875</v>
+        <v>15.29210567474365</v>
       </c>
       <c r="EG2">
-        <v>-1.672591328620911</v>
+        <v>-1.87598979473114</v>
       </c>
       <c r="EH2">
-        <v>-19.83590507507324</v>
+        <v>-20.01671409606934</v>
       </c>
       <c r="EI2">
-        <v>0.5899147391319275</v>
+        <v>1.325068354606628</v>
       </c>
       <c r="EJ2">
-        <v>4.710464477539062</v>
+        <v>4.8975830078125</v>
       </c>
       <c r="EK2">
-        <v>1.30350661277771</v>
+        <v>1.354435205459595</v>
       </c>
       <c r="EL2">
-        <v>-0.1174902468919754</v>
+        <v>0.04119376093149185</v>
       </c>
       <c r="EM2">
-        <v>0.2206645160913467</v>
+        <v>0.02933435887098312</v>
       </c>
       <c r="EN2">
-        <v>3.352080821990967</v>
+        <v>4.302818775177002</v>
       </c>
       <c r="EO2">
-        <v>-1.750676274299622</v>
+        <v>-1.095941662788391</v>
       </c>
       <c r="EP2">
-        <v>-10.88498878479004</v>
+        <v>-11.65494918823242</v>
       </c>
       <c r="EQ2">
-        <v>7.351322174072266</v>
+        <v>6.779464244842529</v>
       </c>
       <c r="ER2">
-        <v>1.89817214012146</v>
+        <v>1.976789951324463</v>
       </c>
       <c r="ES2">
-        <v>-4.193430423736572</v>
+        <v>-4.091150283813477</v>
       </c>
       <c r="ET2">
-        <v>-5.248909473419189</v>
+        <v>-3.939638137817383</v>
       </c>
       <c r="EU2">
-        <v>5.91083288192749</v>
+        <v>6.10546350479126</v>
       </c>
       <c r="EV2">
-        <v>-11.04028415679932</v>
+        <v>-10.29712390899658</v>
       </c>
       <c r="EW2">
-        <v>2.115854740142822</v>
+        <v>3.876903772354126</v>
       </c>
       <c r="EX2">
-        <v>-6.273721218109131</v>
+        <v>-5.62467098236084</v>
       </c>
       <c r="EY2">
-        <v>-2.297989845275879</v>
+        <v>-1.434822797775269</v>
       </c>
       <c r="EZ2">
-        <v>0.7237551808357239</v>
+        <v>2.028020858764648</v>
       </c>
       <c r="FA2">
-        <v>-0.2370355874300003</v>
+        <v>-0.6604348421096802</v>
       </c>
       <c r="FB2">
-        <v>-1.261837601661682</v>
+        <v>-0.6833453178405762</v>
       </c>
       <c r="FC2">
-        <v>-9.371578216552734</v>
+        <v>-10.25947284698486</v>
       </c>
       <c r="FD2">
-        <v>1.053981184959412</v>
+        <v>1.350176692008972</v>
       </c>
       <c r="FE2">
-        <v>-1.075847625732422</v>
+        <v>-1.865344285964966</v>
       </c>
       <c r="FF2">
-        <v>3.914737224578857</v>
+        <v>5.219449043273926</v>
       </c>
       <c r="FG2">
-        <v>-16.285888671875</v>
+        <v>-16.95315170288086</v>
       </c>
       <c r="FH2">
-        <v>0.2257792055606842</v>
+        <v>-0.7564288973808289</v>
       </c>
       <c r="FI2">
-        <v>2.469624996185303</v>
+        <v>3.570541620254517</v>
       </c>
       <c r="FJ2">
-        <v>-7.041875839233398</v>
+        <v>-5.725121974945068</v>
       </c>
       <c r="FK2">
-        <v>7.458334445953369</v>
+        <v>8.218900680541992</v>
       </c>
       <c r="FL2">
-        <v>-1.096788644790649</v>
+        <v>-1.103604197502136</v>
       </c>
       <c r="FM2">
-        <v>-5.334381103515625</v>
+        <v>-5.084718227386475</v>
       </c>
       <c r="FN2">
-        <v>-7.203041076660156</v>
+        <v>-7.805971622467041</v>
       </c>
       <c r="FO2">
-        <v>-0.02096450328826904</v>
+        <v>-0.2857511043548584</v>
       </c>
       <c r="FP2">
-        <v>-0.9269589781761169</v>
+        <v>-0.6702563762664795</v>
       </c>
       <c r="FQ2">
-        <v>1.397568702697754</v>
+        <v>1.45093822479248</v>
       </c>
       <c r="FR2">
-        <v>-0.2626881003379822</v>
+        <v>0.2499647885560989</v>
       </c>
       <c r="FS2">
-        <v>1.13216495513916</v>
+        <v>1.465934872627258</v>
       </c>
       <c r="FT2">
-        <v>-0.4301849901676178</v>
+        <v>-0.4628259837627411</v>
       </c>
       <c r="FU2">
-        <v>-5.28759765625</v>
+        <v>-4.57120418548584</v>
       </c>
       <c r="FV2">
-        <v>-0.5268974900245667</v>
+        <v>0.7028458118438721</v>
       </c>
       <c r="FW2">
-        <v>-3.262612581253052</v>
+        <v>-2.780193567276001</v>
       </c>
       <c r="FX2">
-        <v>1.972151279449463</v>
+        <v>1.681354641914368</v>
       </c>
       <c r="FY2">
-        <v>2.546813011169434</v>
+        <v>1.478947281837463</v>
       </c>
       <c r="FZ2">
-        <v>-2.324575662612915</v>
+        <v>-0.9253798127174377</v>
       </c>
       <c r="GA2">
-        <v>0.3748529553413391</v>
+        <v>0.1613825857639313</v>
       </c>
       <c r="GB2">
-        <v>-1.612391710281372</v>
+        <v>-0.9792537093162537</v>
       </c>
       <c r="GC2">
-        <v>11.78730010986328</v>
+        <v>11.63578128814697</v>
       </c>
       <c r="GD2">
-        <v>-15.51279926300049</v>
+        <v>-15.68076515197754</v>
       </c>
       <c r="GE2">
-        <v>-2.242246150970459</v>
+        <v>-2.129708766937256</v>
       </c>
       <c r="GF2">
-        <v>-9.910299301147461</v>
+        <v>-10.15651416778564</v>
       </c>
       <c r="GG2">
-        <v>-7.680975437164307</v>
+        <v>-8.215222358703613</v>
       </c>
       <c r="GH2">
-        <v>0.4250958561897278</v>
+        <v>0.6589921712875366</v>
       </c>
       <c r="GI2">
-        <v>2.645926713943481</v>
+        <v>3.275564670562744</v>
       </c>
       <c r="GJ2">
-        <v>0.06257516145706177</v>
+        <v>1.212672352790833</v>
       </c>
       <c r="GK2">
-        <v>10.29869651794434</v>
+        <v>9.893218994140625</v>
       </c>
       <c r="GL2">
-        <v>-0.3293174803256989</v>
+        <v>-0.5046805143356323</v>
       </c>
       <c r="GM2">
-        <v>-2.308962345123291</v>
+        <v>-1.971888303756714</v>
       </c>
       <c r="GN2">
-        <v>4.540379524230957</v>
+        <v>3.832816362380981</v>
       </c>
       <c r="GO2">
-        <v>-10.77673053741455</v>
+        <v>-9.290085792541504</v>
       </c>
       <c r="GP2">
-        <v>2.370443820953369</v>
+        <v>2.901387453079224</v>
       </c>
       <c r="GQ2">
-        <v>0.9898433089256287</v>
+        <v>0.3252692818641663</v>
       </c>
       <c r="GR2">
-        <v>-0.1179660484194756</v>
+        <v>0.8852905631065369</v>
       </c>
       <c r="GS2">
-        <v>5.183690071105957</v>
+        <v>5.193970203399658</v>
       </c>
       <c r="GT2">
-        <v>0.6768523454666138</v>
+        <v>-0.8437256217002869</v>
       </c>
       <c r="GU2">
-        <v>-4.76347541809082</v>
+        <v>-5.587607860565186</v>
       </c>
       <c r="GV2">
-        <v>-0.5287930369377136</v>
+        <v>-1.102993488311768</v>
       </c>
       <c r="GW2">
-        <v>-0.5359354615211487</v>
+        <v>-0.3513499200344086</v>
       </c>
       <c r="GX2">
-        <v>1.872637152671814</v>
+        <v>2.584299564361572</v>
       </c>
       <c r="GY2">
-        <v>-2.379616975784302</v>
+        <v>-1.91279149055481</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Multi Nationals.xlsx
+++ b/static/Models/Classification/Equation/Multi Nationals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.858145356178284</v>
+        <v>-1.222843885421753</v>
       </c>
       <c r="C2" t="n">
-        <v>1.248875498771667</v>
+        <v>0.6423974633216858</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.551970481872559</v>
+        <v>-8.025240898132324</v>
       </c>
       <c r="E2" t="n">
-        <v>13.41309547424316</v>
+        <v>12.89734363555908</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6921120882034302</v>
+        <v>0.2897569835186005</v>
       </c>
       <c r="G2" t="n">
-        <v>2.508851051330566</v>
+        <v>2.636505365371704</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.106167234480381</v>
+        <v>0.4205651879310608</v>
       </c>
       <c r="I2" t="n">
-        <v>2.945270299911499</v>
+        <v>3.359508514404297</v>
       </c>
       <c r="J2" t="n">
-        <v>4.370810031890869</v>
+        <v>4.878755569458008</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7161276936531067</v>
+        <v>1.144970893859863</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01407523732632399</v>
+        <v>0.4382863640785217</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.5764495730400085</v>
+        <v>-1.224599957466125</v>
       </c>
       <c r="N2" t="n">
-        <v>0.412183403968811</v>
+        <v>-0.04522437229752541</v>
       </c>
       <c r="O2" t="n">
-        <v>5.307488918304443</v>
+        <v>4.774408340454102</v>
       </c>
       <c r="P2" t="n">
-        <v>7.063124179840088</v>
+        <v>6.644574642181396</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.782370090484619</v>
+        <v>-4.402342796325684</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.7477920055389404</v>
+        <v>-1.016378998756409</v>
       </c>
       <c r="S2" t="n">
-        <v>-17.99796104431152</v>
+        <v>-17.66466903686523</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.5612570643424988</v>
+        <v>-0.1904001832008362</v>
       </c>
       <c r="U2" t="n">
-        <v>-6.030522346496582</v>
+        <v>-5.42180871963501</v>
       </c>
       <c r="V2" t="n">
-        <v>1.650463104248047</v>
+        <v>1.222578883171082</v>
       </c>
       <c r="W2" t="n">
-        <v>-3.943398475646973</v>
+        <v>-3.245027303695679</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.175211191177368</v>
+        <v>-1.665522694587708</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.342562794685364</v>
+        <v>-1.395164012908936</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3650266826152802</v>
+        <v>0.2523329854011536</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.207041263580322</v>
+        <v>1.805036664009094</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.765123844146729</v>
+        <v>6.897946834564209</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.604976654052734</v>
+        <v>-8.057275772094727</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.2439219355583191</v>
+        <v>-0.1504722088575363</v>
       </c>
       <c r="AE2" t="n">
-        <v>-4.286577224731445</v>
+        <v>-4.292984485626221</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.9953047037124634</v>
+        <v>0.4970605373382568</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.974033355712891</v>
+        <v>10.41711902618408</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.8887689709663391</v>
+        <v>-0.1076480373740196</v>
       </c>
       <c r="AI2" t="n">
-        <v>-9.761116027832031</v>
+        <v>-10.11023044586182</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5396148562431335</v>
+        <v>-0.009765203110873699</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.475829124450684</v>
+        <v>-3.81777548789978</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.632296442985535</v>
+        <v>-1.967954993247986</v>
       </c>
       <c r="AM2" t="n">
-        <v>18.04300308227539</v>
+        <v>18.57535171508789</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.177835464477539</v>
+        <v>1.825462579727173</v>
       </c>
       <c r="AO2" t="n">
-        <v>-3.116546392440796</v>
+        <v>-3.741777420043945</v>
       </c>
       <c r="AP2" t="n">
-        <v>-2.626916408538818</v>
+        <v>-2.218671321868896</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.880621910095215</v>
+        <v>3.311474084854126</v>
       </c>
       <c r="AR2" t="n">
-        <v>11.43076133728027</v>
+        <v>12.00318813323975</v>
       </c>
       <c r="AS2" t="n">
-        <v>-2.927188396453857</v>
+        <v>-3.23955512046814</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.9886937141418457</v>
+        <v>-1.498729586601257</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.364321231842041</v>
+        <v>-0.08600696921348572</v>
       </c>
       <c r="AV2" t="n">
-        <v>-5.682485103607178</v>
+        <v>-5.26271915435791</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.116212606430054</v>
+        <v>1.662133574485779</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.401148319244385</v>
+        <v>2.925826787948608</v>
       </c>
       <c r="AY2" t="n">
-        <v>4.718594074249268</v>
+        <v>5.269371509552002</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-16.6446533203125</v>
+        <v>-17.23508071899414</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.621073961257935</v>
+        <v>-2.016091346740723</v>
       </c>
       <c r="BB2" t="n">
-        <v>15.39297103881836</v>
+        <v>15.4287691116333</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.861475825309753</v>
+        <v>-1.380011677742004</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.4954417645931244</v>
+        <v>-0.3455608487129211</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.9561253190040588</v>
+        <v>-1.458810806274414</v>
       </c>
       <c r="BF2" t="n">
-        <v>16.81463241577148</v>
+        <v>16.31973457336426</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.911761045455933</v>
+        <v>-1.597957849502563</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.4642005860805511</v>
+        <v>-0.8182480931282043</v>
       </c>
       <c r="BI2" t="n">
-        <v>-2.55107307434082</v>
+        <v>-2.114259243011475</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.804857730865479</v>
+        <v>5.094114303588867</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.57465922832489</v>
+        <v>-0.8684650063514709</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.4818094670772552</v>
+        <v>0.2278029471635818</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.388673782348633</v>
+        <v>2.907964468002319</v>
       </c>
       <c r="BN2" t="n">
-        <v>-6.551762104034424</v>
+        <v>-6.547737121582031</v>
       </c>
       <c r="BO2" t="n">
-        <v>-3.456290483474731</v>
+        <v>-2.899673700332642</v>
       </c>
       <c r="BP2" t="n">
-        <v>12.20238780975342</v>
+        <v>12.2105598449707</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-2.698915243148804</v>
+        <v>-3.105343818664551</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.905197262763977</v>
+        <v>1.659507155418396</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.3766724765300751</v>
+        <v>0.01968372613191605</v>
       </c>
       <c r="BT2" t="n">
-        <v>-3.749564647674561</v>
+        <v>-4.152953624725342</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.6306402087211609</v>
+        <v>0.9282846450805664</v>
       </c>
       <c r="BV2" t="n">
-        <v>17.29891014099121</v>
+        <v>17.01383590698242</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.4848777055740356</v>
+        <v>-0.9915387630462646</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.650804281234741</v>
+        <v>-1.134485602378845</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.170834183692932</v>
+        <v>1.425979018211365</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.92248010635376</v>
+        <v>3.424464464187622</v>
       </c>
       <c r="CA2" t="n">
-        <v>4.588176727294922</v>
+        <v>4.123896598815918</v>
       </c>
       <c r="CB2" t="n">
-        <v>-6.358194351196289</v>
+        <v>-6.784428596496582</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.3316669166088104</v>
+        <v>0.03200247883796692</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.5392950773239136</v>
+        <v>-0.005177748389542103</v>
       </c>
       <c r="CE2" t="n">
-        <v>-9.78728199005127</v>
+        <v>-9.969441413879395</v>
       </c>
       <c r="CF2" t="n">
-        <v>4.619814872741699</v>
+        <v>5.204194068908691</v>
       </c>
       <c r="CG2" t="n">
-        <v>-8.886974334716797</v>
+        <v>-8.357556343078613</v>
       </c>
       <c r="CH2" t="n">
-        <v>-6.561314105987549</v>
+        <v>-7.095774173736572</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.2568804323673248</v>
+        <v>0.3053995668888092</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-4.458191394805908</v>
+        <v>-3.75346040725708</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.5322697758674622</v>
+        <v>-0.5419214367866516</v>
       </c>
       <c r="CL2" t="n">
-        <v>-4.457179546356201</v>
+        <v>-4.141914367675781</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.143488168716431</v>
+        <v>0.7302371859550476</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.3341686725616455</v>
+        <v>0.9544960856437683</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.860527753829956</v>
+        <v>-1.508457064628601</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.109179258346558</v>
+        <v>-0.7183148264884949</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-13.7488431930542</v>
+        <v>-14.02956771850586</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.03102334402501583</v>
+        <v>-0.6228513717651367</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.1180481538176537</v>
+        <v>-0.5386426448822021</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.07115078717470169</v>
+        <v>0.2590630948543549</v>
       </c>
       <c r="CU2" t="n">
-        <v>-1.672585248947144</v>
+        <v>-2.0219566822052</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.5025192499160767</v>
+        <v>1.048366189002991</v>
       </c>
       <c r="CW2" t="n">
-        <v>-9.95246696472168</v>
+        <v>-9.499458312988281</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.8124454617500305</v>
+        <v>-0.6538885831832886</v>
       </c>
       <c r="CY2" t="n">
-        <v>-2.266055822372437</v>
+        <v>-2.742957353591919</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.3432944118976593</v>
+        <v>0.01212933100759983</v>
       </c>
       <c r="DA2" t="n">
-        <v>10.08624172210693</v>
+        <v>10.75595760345459</v>
       </c>
       <c r="DB2" t="n">
-        <v>5.806721687316895</v>
+        <v>5.231915473937988</v>
       </c>
       <c r="DC2" t="n">
-        <v>-2.565480947494507</v>
+        <v>-2.060193777084351</v>
       </c>
       <c r="DD2" t="n">
-        <v>-7.812705516815186</v>
+        <v>-7.331599235534668</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.427390933036804</v>
+        <v>0.7736142873764038</v>
       </c>
       <c r="DF2" t="n">
-        <v>11.71520805358887</v>
+        <v>12.33489513397217</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.195707082748413</v>
+        <v>0.7003149390220642</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.7899084091186523</v>
+        <v>-1.373298287391663</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.207518219947815</v>
+        <v>0.792138934135437</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.013226389884949</v>
+        <v>1.544878363609314</v>
       </c>
       <c r="DK2" t="n">
-        <v>-6.10149097442627</v>
+        <v>-5.811511993408203</v>
       </c>
       <c r="DL2" t="n">
-        <v>5.326514720916748</v>
+        <v>5.751135349273682</v>
       </c>
       <c r="DM2" t="n">
-        <v>-1.733225345611572</v>
+        <v>-2.275785207748413</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.9723181128501892</v>
+        <v>-0.6216998696327209</v>
       </c>
       <c r="DO2" t="n">
-        <v>-11.98293018341064</v>
+        <v>-11.55792713165283</v>
       </c>
       <c r="DP2" t="n">
-        <v>-3.425017356872559</v>
+        <v>-2.793306589126587</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.3516869843006134</v>
+        <v>-0.2112782299518585</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.311126828193665</v>
+        <v>0.7697747945785522</v>
       </c>
       <c r="DS2" t="n">
-        <v>-5.414039611816406</v>
+        <v>-4.837162494659424</v>
       </c>
       <c r="DT2" t="n">
-        <v>-15.81260204315186</v>
+        <v>-15.45057487487793</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.9822995066642761</v>
+        <v>-0.5071105360984802</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.4069328606128693</v>
+        <v>0.2696213126182556</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.7940749526023865</v>
+        <v>0.8273201584815979</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.2591722011566162</v>
+        <v>0.6129578351974487</v>
       </c>
       <c r="DY2" t="n">
-        <v>-2.772391796112061</v>
+        <v>-2.13080620765686</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.2536963820457458</v>
+        <v>-0.4567678272724152</v>
       </c>
       <c r="EA2" t="n">
-        <v>3.527511358261108</v>
+        <v>3.96952223777771</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.1667498648166656</v>
+        <v>-0.1839328110218048</v>
       </c>
       <c r="EC2" t="n">
-        <v>2.463166952133179</v>
+        <v>2.095645427703857</v>
       </c>
       <c r="ED2" t="n">
-        <v>-4.844719409942627</v>
+        <v>-4.471943378448486</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.837421178817749</v>
+        <v>0.3582707643508911</v>
       </c>
       <c r="EF2" t="n">
-        <v>15.86836433410645</v>
+        <v>15.49373054504395</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.336786270141602</v>
+        <v>-0.903705358505249</v>
       </c>
       <c r="EH2" t="n">
-        <v>-19.11923980712891</v>
+        <v>-18.68367576599121</v>
       </c>
       <c r="EI2" t="n">
-        <v>2.123428344726562</v>
+        <v>2.619659185409546</v>
       </c>
       <c r="EJ2" t="n">
-        <v>4.584794998168945</v>
+        <v>5.183145999908447</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.141371011734009</v>
+        <v>1.481447339057922</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.3352714478969574</v>
+        <v>-0.1048137173056602</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.3071913719177246</v>
+        <v>0.1719626486301422</v>
       </c>
       <c r="EN2" t="n">
-        <v>4.283046722412109</v>
+        <v>4.69476318359375</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.6970662474632263</v>
+        <v>-0.2050872594118118</v>
       </c>
       <c r="EP2" t="n">
-        <v>-11.17126178741455</v>
+        <v>-10.72202777862549</v>
       </c>
       <c r="EQ2" t="n">
-        <v>7.2750244140625</v>
+        <v>6.641202926635742</v>
       </c>
       <c r="ER2" t="n">
-        <v>2.498543500900269</v>
+        <v>2.025339365005493</v>
       </c>
       <c r="ES2" t="n">
-        <v>-3.585615158081055</v>
+        <v>-3.185750246047974</v>
       </c>
       <c r="ET2" t="n">
-        <v>-3.667870283126831</v>
+        <v>-3.802617073059082</v>
       </c>
       <c r="EU2" t="n">
-        <v>6.003364086151123</v>
+        <v>6.576150417327881</v>
       </c>
       <c r="EV2" t="n">
-        <v>-9.796665191650391</v>
+        <v>-9.96442699432373</v>
       </c>
       <c r="EW2" t="n">
-        <v>3.750174760818481</v>
+        <v>4.314527034759521</v>
       </c>
       <c r="EX2" t="n">
-        <v>-5.577169418334961</v>
+        <v>-4.866130828857422</v>
       </c>
       <c r="EY2" t="n">
-        <v>-1.782681107521057</v>
+        <v>-1.391575455665588</v>
       </c>
       <c r="EZ2" t="n">
-        <v>2.269421339035034</v>
+        <v>2.808130502700806</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.580876708030701</v>
+        <v>-1.197286128997803</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.021222591400146</v>
+        <v>-1.725868225097656</v>
       </c>
       <c r="FC2" t="n">
-        <v>-9.427501678466797</v>
+        <v>-9.999509811401367</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.767340779304504</v>
+        <v>1.40592634677887</v>
       </c>
       <c r="FE2" t="n">
-        <v>-1.437772870063782</v>
+        <v>-1.817257165908813</v>
       </c>
       <c r="FF2" t="n">
-        <v>5.119433879852295</v>
+        <v>5.575338363647461</v>
       </c>
       <c r="FG2" t="n">
-        <v>-17.45095634460449</v>
+        <v>-17.88256454467773</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.2304293662309647</v>
+        <v>0.3243629038333893</v>
       </c>
       <c r="FI2" t="n">
-        <v>4.193580627441406</v>
+        <v>4.966559410095215</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-5.319827556610107</v>
+        <v>-4.824863433837891</v>
       </c>
       <c r="FK2" t="n">
-        <v>7.799112319946289</v>
+        <v>8.368082046508789</v>
       </c>
       <c r="FL2" t="n">
-        <v>-1.430280447006226</v>
+        <v>-1.966852068901062</v>
       </c>
       <c r="FM2" t="n">
-        <v>-5.41437816619873</v>
+        <v>-6.069497585296631</v>
       </c>
       <c r="FN2" t="n">
-        <v>-7.372963905334473</v>
+        <v>-6.643592834472656</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.4342716038227081</v>
+        <v>-0.0821698009967804</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.1397600322961807</v>
+        <v>0.1201773136854172</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.057303547859192</v>
+        <v>1.401826620101929</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.08960460871458054</v>
+        <v>-0.7275159955024719</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.208730340003967</v>
+        <v>1.513983249664307</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.8727813959121704</v>
+        <v>-0.9525315761566162</v>
       </c>
       <c r="FU2" t="n">
-        <v>-4.905595302581787</v>
+        <v>-4.49223804473877</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.5253033638000488</v>
+        <v>0.6700639724731445</v>
       </c>
       <c r="FW2" t="n">
-        <v>-3.141966581344604</v>
+        <v>-3.051882743835449</v>
       </c>
       <c r="FX2" t="n">
-        <v>2.019061326980591</v>
+        <v>2.441608667373657</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.062822937965393</v>
+        <v>0.7284731268882751</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-1.295995593070984</v>
+        <v>-1.770564794540405</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.4860037565231323</v>
+        <v>0.8025457859039307</v>
       </c>
       <c r="GB2" t="n">
-        <v>-1.779692649841309</v>
+        <v>-1.972033262252808</v>
       </c>
       <c r="GC2" t="n">
-        <v>11.17032146453857</v>
+        <v>10.55285835266113</v>
       </c>
       <c r="GD2" t="n">
-        <v>-16.52425765991211</v>
+        <v>-16.06350326538086</v>
       </c>
       <c r="GE2" t="n">
-        <v>-2.503776073455811</v>
+        <v>-2.332864761352539</v>
       </c>
       <c r="GF2" t="n">
-        <v>-9.452431678771973</v>
+        <v>-8.978561401367188</v>
       </c>
       <c r="GG2" t="n">
-        <v>-7.296508312225342</v>
+        <v>-6.857035160064697</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.1296508759260178</v>
+        <v>0.4955050945281982</v>
       </c>
       <c r="GI2" t="n">
-        <v>2.714032411575317</v>
+        <v>2.234732151031494</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.5420998334884644</v>
+        <v>0.1163370385766029</v>
       </c>
       <c r="GK2" t="n">
-        <v>9.098122596740723</v>
+        <v>9.025433540344238</v>
       </c>
       <c r="GL2" t="n">
-        <v>-1.074481248855591</v>
+        <v>-0.6574200987815857</v>
       </c>
       <c r="GM2" t="n">
-        <v>-2.240080118179321</v>
+        <v>-1.806130528450012</v>
       </c>
       <c r="GN2" t="n">
-        <v>4.409781932830811</v>
+        <v>3.871816635131836</v>
       </c>
       <c r="GO2" t="n">
-        <v>-8.848653793334961</v>
+        <v>-9.117670059204102</v>
       </c>
       <c r="GP2" t="n">
-        <v>2.597616195678711</v>
+        <v>2.985450267791748</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.3141487240791321</v>
+        <v>0.7511591911315918</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.493654489517212</v>
+        <v>1.098797678947449</v>
       </c>
       <c r="GS2" t="n">
-        <v>4.922467708587646</v>
+        <v>5.485368251800537</v>
       </c>
       <c r="GT2" t="n">
-        <v>-1.06965184211731</v>
+        <v>-0.6417925357818604</v>
       </c>
       <c r="GU2" t="n">
-        <v>-5.38454008102417</v>
+        <v>-5.823900699615479</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.6543816924095154</v>
+        <v>-0.2522588670253754</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.724585235118866</v>
+        <v>-1.059351563453674</v>
       </c>
       <c r="GX2" t="n">
-        <v>2.173382997512817</v>
+        <v>2.091108083724976</v>
       </c>
       <c r="GY2" t="n">
-        <v>-2.23248028755188</v>
+        <v>-2.168452978134155</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Multi Nationals.xlsx
+++ b/static/Models/Classification/Equation/Multi Nationals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.222843885421753</v>
+        <v>-1.11267101764679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6423974633216858</v>
+        <v>1.19356095790863</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.025240898132324</v>
+        <v>-7.566614151000977</v>
       </c>
       <c r="E2" t="n">
-        <v>12.89734363555908</v>
+        <v>13.51089572906494</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2897569835186005</v>
+        <v>0.4613832533359528</v>
       </c>
       <c r="G2" t="n">
-        <v>2.636505365371704</v>
+        <v>2.079960346221924</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4205651879310608</v>
+        <v>0.03909780830144882</v>
       </c>
       <c r="I2" t="n">
-        <v>3.359508514404297</v>
+        <v>3.729427814483643</v>
       </c>
       <c r="J2" t="n">
-        <v>4.878755569458008</v>
+        <v>5.520936489105225</v>
       </c>
       <c r="K2" t="n">
-        <v>1.144970893859863</v>
+        <v>1.751937389373779</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4382863640785217</v>
+        <v>-0.009030080400407314</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.224599957466125</v>
+        <v>-0.6413050293922424</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.04522437229752541</v>
+        <v>-0.6090331673622131</v>
       </c>
       <c r="O2" t="n">
-        <v>4.774408340454102</v>
+        <v>4.291362285614014</v>
       </c>
       <c r="P2" t="n">
-        <v>6.644574642181396</v>
+        <v>6.976120471954346</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.402342796325684</v>
+        <v>-4.861838340759277</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.016378998756409</v>
+        <v>-0.6047812104225159</v>
       </c>
       <c r="S2" t="n">
-        <v>-17.66466903686523</v>
+        <v>-16.86638832092285</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1904001832008362</v>
+        <v>0.0436185784637928</v>
       </c>
       <c r="U2" t="n">
-        <v>-5.42180871963501</v>
+        <v>-4.738746643066406</v>
       </c>
       <c r="V2" t="n">
-        <v>1.222578883171082</v>
+        <v>1.692024707794189</v>
       </c>
       <c r="W2" t="n">
-        <v>-3.245027303695679</v>
+        <v>-3.991364479064941</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.665522694587708</v>
+        <v>-1.199203252792358</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.395164012908936</v>
+        <v>-0.7173675298690796</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2523329854011536</v>
+        <v>-0.2222285121679306</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.805036664009094</v>
+        <v>1.634764313697815</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.897946834564209</v>
+        <v>7.308449745178223</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.057275772094727</v>
+        <v>-8.041285514831543</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.1504722088575363</v>
+        <v>0.09127635508775711</v>
       </c>
       <c r="AE2" t="n">
-        <v>-4.292984485626221</v>
+        <v>-4.193205833435059</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.4970605373382568</v>
+        <v>0.9052286148071289</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.41711902618408</v>
+        <v>10.8763370513916</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.1076480373740196</v>
+        <v>0.2632200419902802</v>
       </c>
       <c r="AI2" t="n">
-        <v>-10.11023044586182</v>
+        <v>-10.0482292175293</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.009765203110873699</v>
+        <v>-0.7297096252441406</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.81777548789978</v>
+        <v>-4.162889003753662</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.967954993247986</v>
+        <v>-2.322329759597778</v>
       </c>
       <c r="AM2" t="n">
-        <v>18.57535171508789</v>
+        <v>18.10835838317871</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.825462579727173</v>
+        <v>2.3008131980896</v>
       </c>
       <c r="AO2" t="n">
-        <v>-3.741777420043945</v>
+        <v>-2.874603509902954</v>
       </c>
       <c r="AP2" t="n">
-        <v>-2.218671321868896</v>
+        <v>-1.523214817047119</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.311474084854126</v>
+        <v>2.815490245819092</v>
       </c>
       <c r="AR2" t="n">
-        <v>12.00318813323975</v>
+        <v>11.63716506958008</v>
       </c>
       <c r="AS2" t="n">
-        <v>-3.23955512046814</v>
+        <v>-2.825273752212524</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.498729586601257</v>
+        <v>-1.011642694473267</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08600696921348572</v>
+        <v>-0.5221729874610901</v>
       </c>
       <c r="AV2" t="n">
-        <v>-5.26271915435791</v>
+        <v>-5.262979984283447</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.662133574485779</v>
+        <v>1.224448323249817</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.925826787948608</v>
+        <v>3.396619081497192</v>
       </c>
       <c r="AY2" t="n">
-        <v>5.269371509552002</v>
+        <v>5.771237373352051</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-17.23508071899414</v>
+        <v>-17.51223945617676</v>
       </c>
       <c r="BA2" t="n">
-        <v>-2.016091346740723</v>
+        <v>-2.468778371810913</v>
       </c>
       <c r="BB2" t="n">
-        <v>15.4287691116333</v>
+        <v>15.97574996948242</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.380011677742004</v>
+        <v>-1.355434417724609</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.3455608487129211</v>
+        <v>-0.07884307950735092</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.458810806274414</v>
+        <v>-0.7715326547622681</v>
       </c>
       <c r="BF2" t="n">
-        <v>16.31973457336426</v>
+        <v>16.85882759094238</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.597957849502563</v>
+        <v>-1.306769728660583</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.8182480931282043</v>
+        <v>-1.287355065345764</v>
       </c>
       <c r="BI2" t="n">
-        <v>-2.114259243011475</v>
+        <v>-1.843214750289917</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.094114303588867</v>
+        <v>4.837484359741211</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.8684650063514709</v>
+        <v>-0.405650407075882</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.2278029471635818</v>
+        <v>0.43946772813797</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.907964468002319</v>
+        <v>3.335242033004761</v>
       </c>
       <c r="BN2" t="n">
-        <v>-6.547737121582031</v>
+        <v>-7.209619998931885</v>
       </c>
       <c r="BO2" t="n">
-        <v>-2.899673700332642</v>
+        <v>-3.330471992492676</v>
       </c>
       <c r="BP2" t="n">
-        <v>12.2105598449707</v>
+        <v>12.15731143951416</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-3.105343818664551</v>
+        <v>-3.566077947616577</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.659507155418396</v>
+        <v>2.171143770217896</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.01968372613191605</v>
+        <v>0.6860854029655457</v>
       </c>
       <c r="BT2" t="n">
-        <v>-4.152953624725342</v>
+        <v>-4.538515090942383</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.9282846450805664</v>
+        <v>1.203995108604431</v>
       </c>
       <c r="BV2" t="n">
-        <v>17.01383590698242</v>
+        <v>16.51618766784668</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.9915387630462646</v>
+        <v>-0.9560106992721558</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.134485602378845</v>
+        <v>-0.4053735435009003</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.425979018211365</v>
+        <v>0.9292623400688171</v>
       </c>
       <c r="BZ2" t="n">
-        <v>3.424464464187622</v>
+        <v>4.041482925415039</v>
       </c>
       <c r="CA2" t="n">
-        <v>4.123896598815918</v>
+        <v>3.684693574905396</v>
       </c>
       <c r="CB2" t="n">
-        <v>-6.784428596496582</v>
+        <v>-6.268045425415039</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.03200247883796692</v>
+        <v>0.4418928921222687</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.005177748389542103</v>
+        <v>-0.5322377681732178</v>
       </c>
       <c r="CE2" t="n">
-        <v>-9.969441413879395</v>
+        <v>-9.239871978759766</v>
       </c>
       <c r="CF2" t="n">
-        <v>5.204194068908691</v>
+        <v>5.855812072753906</v>
       </c>
       <c r="CG2" t="n">
-        <v>-8.357556343078613</v>
+        <v>-8.754343032836914</v>
       </c>
       <c r="CH2" t="n">
-        <v>-7.095774173736572</v>
+        <v>-6.253166198730469</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.3053995668888092</v>
+        <v>0.4153042137622833</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-3.75346040725708</v>
+        <v>-3.330091714859009</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.5419214367866516</v>
+        <v>-0.2357656955718994</v>
       </c>
       <c r="CL2" t="n">
-        <v>-4.141914367675781</v>
+        <v>-3.745189189910889</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.7302371859550476</v>
+        <v>1.275499582290649</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.9544960856437683</v>
+        <v>1.781770706176758</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.508457064628601</v>
+        <v>-1.305306196212769</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.7183148264884949</v>
+        <v>-0.09705667197704315</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-14.02956771850586</v>
+        <v>-13.57524967193604</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.6228513717651367</v>
+        <v>-0.892924964427948</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.5386426448822021</v>
+        <v>-0.3039519190788269</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.2590630948543549</v>
+        <v>0.6692614555358887</v>
       </c>
       <c r="CU2" t="n">
-        <v>-2.0219566822052</v>
+        <v>-1.585617303848267</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.048366189002991</v>
+        <v>1.815106511116028</v>
       </c>
       <c r="CW2" t="n">
-        <v>-9.499458312988281</v>
+        <v>-9.078654289245605</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.6538885831832886</v>
+        <v>-1.037853717803955</v>
       </c>
       <c r="CY2" t="n">
-        <v>-2.742957353591919</v>
+        <v>-3.187388896942139</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.01212933100759983</v>
+        <v>0.1208016574382782</v>
       </c>
       <c r="DA2" t="n">
-        <v>10.75595760345459</v>
+        <v>10.22898960113525</v>
       </c>
       <c r="DB2" t="n">
-        <v>5.231915473937988</v>
+        <v>4.857221603393555</v>
       </c>
       <c r="DC2" t="n">
-        <v>-2.060193777084351</v>
+        <v>-1.454438805580139</v>
       </c>
       <c r="DD2" t="n">
-        <v>-7.331599235534668</v>
+        <v>-6.660155296325684</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.7736142873764038</v>
+        <v>1.029508709907532</v>
       </c>
       <c r="DF2" t="n">
-        <v>12.33489513397217</v>
+        <v>13.00851821899414</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.7003149390220642</v>
+        <v>0.171224981546402</v>
       </c>
       <c r="DH2" t="n">
-        <v>-1.373298287391663</v>
+        <v>-0.976615846157074</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.792138934135437</v>
+        <v>0.7211362719535828</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.544878363609314</v>
+        <v>2.02267050743103</v>
       </c>
       <c r="DK2" t="n">
-        <v>-5.811511993408203</v>
+        <v>-5.395065784454346</v>
       </c>
       <c r="DL2" t="n">
-        <v>5.751135349273682</v>
+        <v>6.534378528594971</v>
       </c>
       <c r="DM2" t="n">
-        <v>-2.275785207748413</v>
+        <v>-1.510733842849731</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.6216998696327209</v>
+        <v>-0.2951332926750183</v>
       </c>
       <c r="DO2" t="n">
-        <v>-11.55792713165283</v>
+        <v>-11.61605358123779</v>
       </c>
       <c r="DP2" t="n">
-        <v>-2.793306589126587</v>
+        <v>-2.746146202087402</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.2112782299518585</v>
+        <v>0.07064829766750336</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.7697747945785522</v>
+        <v>1.206528186798096</v>
       </c>
       <c r="DS2" t="n">
-        <v>-4.837162494659424</v>
+        <v>-4.308566093444824</v>
       </c>
       <c r="DT2" t="n">
-        <v>-15.45057487487793</v>
+        <v>-15.9688892364502</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.5071105360984802</v>
+        <v>-0.6683268547058105</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.2696213126182556</v>
+        <v>0.7032526731491089</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.8273201584815979</v>
+        <v>1.177164077758789</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.6129578351974487</v>
+        <v>0.9398376941680908</v>
       </c>
       <c r="DY2" t="n">
-        <v>-2.13080620765686</v>
+        <v>-1.709639668464661</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.4567678272724152</v>
+        <v>-0.7859290242195129</v>
       </c>
       <c r="EA2" t="n">
-        <v>3.96952223777771</v>
+        <v>4.318525314331055</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.1839328110218048</v>
+        <v>0.07643549144268036</v>
       </c>
       <c r="EC2" t="n">
-        <v>2.095645427703857</v>
+        <v>1.563704133033752</v>
       </c>
       <c r="ED2" t="n">
-        <v>-4.471943378448486</v>
+        <v>-4.231484889984131</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.3582707643508911</v>
+        <v>0.5918846726417542</v>
       </c>
       <c r="EF2" t="n">
-        <v>15.49373054504395</v>
+        <v>15.93534851074219</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.903705358505249</v>
+        <v>-0.3966828882694244</v>
       </c>
       <c r="EH2" t="n">
-        <v>-18.68367576599121</v>
+        <v>-18.08626174926758</v>
       </c>
       <c r="EI2" t="n">
-        <v>2.619659185409546</v>
+        <v>3.258636951446533</v>
       </c>
       <c r="EJ2" t="n">
-        <v>5.183145999908447</v>
+        <v>4.774260520935059</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.481447339057922</v>
+        <v>1.865887045860291</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.1048137173056602</v>
+        <v>0.1335234194993973</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.1719626486301422</v>
+        <v>0.6277299523353577</v>
       </c>
       <c r="EN2" t="n">
-        <v>4.69476318359375</v>
+        <v>5.2042555809021</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.2050872594118118</v>
+        <v>-0.4874818921089172</v>
       </c>
       <c r="EP2" t="n">
-        <v>-10.72202777862549</v>
+        <v>-10.87444114685059</v>
       </c>
       <c r="EQ2" t="n">
-        <v>6.641202926635742</v>
+        <v>7.314746379852295</v>
       </c>
       <c r="ER2" t="n">
-        <v>2.025339365005493</v>
+        <v>2.459313631057739</v>
       </c>
       <c r="ES2" t="n">
-        <v>-3.185750246047974</v>
+        <v>-2.434114456176758</v>
       </c>
       <c r="ET2" t="n">
-        <v>-3.802617073059082</v>
+        <v>-3.266087532043457</v>
       </c>
       <c r="EU2" t="n">
-        <v>6.576150417327881</v>
+        <v>6.433970928192139</v>
       </c>
       <c r="EV2" t="n">
-        <v>-9.96442699432373</v>
+        <v>-10.46020793914795</v>
       </c>
       <c r="EW2" t="n">
-        <v>4.314527034759521</v>
+        <v>4.79849100112915</v>
       </c>
       <c r="EX2" t="n">
-        <v>-4.866130828857422</v>
+        <v>-5.475322723388672</v>
       </c>
       <c r="EY2" t="n">
-        <v>-1.391575455665588</v>
+        <v>-1.148054122924805</v>
       </c>
       <c r="EZ2" t="n">
-        <v>2.808130502700806</v>
+        <v>3.336887121200562</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.197286128997803</v>
+        <v>-0.8885047435760498</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.725868225097656</v>
+        <v>-1.445206165313721</v>
       </c>
       <c r="FC2" t="n">
-        <v>-9.999509811401367</v>
+        <v>-9.597195625305176</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.40592634677887</v>
+        <v>1.401355862617493</v>
       </c>
       <c r="FE2" t="n">
-        <v>-1.817257165908813</v>
+        <v>-1.190447211265564</v>
       </c>
       <c r="FF2" t="n">
-        <v>5.575338363647461</v>
+        <v>6.124230861663818</v>
       </c>
       <c r="FG2" t="n">
-        <v>-17.88256454467773</v>
+        <v>-17.14628791809082</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.3243629038333893</v>
+        <v>0.1469027251005173</v>
       </c>
       <c r="FI2" t="n">
-        <v>4.966559410095215</v>
+        <v>4.571900844573975</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-4.824863433837891</v>
+        <v>-4.398852348327637</v>
       </c>
       <c r="FK2" t="n">
-        <v>8.368082046508789</v>
+        <v>8.147556304931641</v>
       </c>
       <c r="FL2" t="n">
-        <v>-1.966852068901062</v>
+        <v>-1.237413048744202</v>
       </c>
       <c r="FM2" t="n">
-        <v>-6.069497585296631</v>
+        <v>-6.565566062927246</v>
       </c>
       <c r="FN2" t="n">
-        <v>-6.643592834472656</v>
+        <v>-6.132072448730469</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.0821698009967804</v>
+        <v>-0.6285747289657593</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.1201773136854172</v>
+        <v>-0.4370363354682922</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.401826620101929</v>
+        <v>1.670074462890625</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.7275159955024719</v>
+        <v>-0.4350495040416718</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.513983249664307</v>
+        <v>1.90794038772583</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.9525315761566162</v>
+        <v>-0.7242667078971863</v>
       </c>
       <c r="FU2" t="n">
-        <v>-4.49223804473877</v>
+        <v>-4.21027135848999</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.6700639724731445</v>
+        <v>0.9776991009712219</v>
       </c>
       <c r="FW2" t="n">
-        <v>-3.051882743835449</v>
+        <v>-3.166063070297241</v>
       </c>
       <c r="FX2" t="n">
-        <v>2.441608667373657</v>
+        <v>1.80248761177063</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.7284731268882751</v>
+        <v>0.9486400485038757</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-1.770564794540405</v>
+        <v>-2.167896747589111</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.8025457859039307</v>
+        <v>1.278710603713989</v>
       </c>
       <c r="GB2" t="n">
-        <v>-1.972033262252808</v>
+        <v>-1.429112911224365</v>
       </c>
       <c r="GC2" t="n">
-        <v>10.55285835266113</v>
+        <v>10.09261226654053</v>
       </c>
       <c r="GD2" t="n">
-        <v>-16.06350326538086</v>
+        <v>-16.51832008361816</v>
       </c>
       <c r="GE2" t="n">
-        <v>-2.332864761352539</v>
+        <v>-2.090985059738159</v>
       </c>
       <c r="GF2" t="n">
-        <v>-8.978561401367188</v>
+        <v>-8.390742301940918</v>
       </c>
       <c r="GG2" t="n">
-        <v>-6.857035160064697</v>
+        <v>-6.106011867523193</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.4955050945281982</v>
+        <v>0.03576613962650299</v>
       </c>
       <c r="GI2" t="n">
-        <v>2.234732151031494</v>
+        <v>2.653454542160034</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.1163370385766029</v>
+        <v>-0.2072195410728455</v>
       </c>
       <c r="GK2" t="n">
-        <v>9.025433540344238</v>
+        <v>9.574832916259766</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.6574200987815857</v>
+        <v>-1.026351809501648</v>
       </c>
       <c r="GM2" t="n">
-        <v>-1.806130528450012</v>
+        <v>-2.23912787437439</v>
       </c>
       <c r="GN2" t="n">
-        <v>3.871816635131836</v>
+        <v>3.505042791366577</v>
       </c>
       <c r="GO2" t="n">
-        <v>-9.117670059204102</v>
+        <v>-8.678800582885742</v>
       </c>
       <c r="GP2" t="n">
-        <v>2.985450267791748</v>
+        <v>3.347027778625488</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.7511591911315918</v>
+        <v>1.181174635887146</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.098797678947449</v>
+        <v>0.6086274385452271</v>
       </c>
       <c r="GS2" t="n">
-        <v>5.485368251800537</v>
+        <v>5.324644565582275</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.6417925357818604</v>
+        <v>-0.09354294836521149</v>
       </c>
       <c r="GU2" t="n">
-        <v>-5.823900699615479</v>
+        <v>-6.250764846801758</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.2522588670253754</v>
+        <v>0.1056740954518318</v>
       </c>
       <c r="GW2" t="n">
-        <v>-1.059351563453674</v>
+        <v>-1.385019302368164</v>
       </c>
       <c r="GX2" t="n">
-        <v>2.091108083724976</v>
+        <v>2.156326770782471</v>
       </c>
       <c r="GY2" t="n">
-        <v>-2.168452978134155</v>
+        <v>-1.923213243484497</v>
       </c>
     </row>
   </sheetData>
